--- a/results.xlsx
+++ b/results.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="10380" windowHeight="6540"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="10380" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="3" r:id="rId1"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="855">
   <si>
     <t>tag</t>
   </si>
@@ -201,6 +201,2385 @@
   </si>
   <si>
     <t>electro</t>
+  </si>
+  <si>
+    <t>classique</t>
+  </si>
+  <si>
+    <t>905.521792515</t>
+  </si>
+  <si>
+    <t>119.901207422</t>
+  </si>
+  <si>
+    <t>127.803738318</t>
+  </si>
+  <si>
+    <t>16.0311841275</t>
+  </si>
+  <si>
+    <t>0.116465615168</t>
+  </si>
+  <si>
+    <t>0.0521558703514</t>
+  </si>
+  <si>
+    <t>101.158878505</t>
+  </si>
+  <si>
+    <t>20.3075187644</t>
+  </si>
+  <si>
+    <t>0.607476635514</t>
+  </si>
+  <si>
+    <t>184.983221477</t>
+  </si>
+  <si>
+    <t>0.996655518395</t>
+  </si>
+  <si>
+    <t>1.00673400673</t>
+  </si>
+  <si>
+    <t>0.966377440347</t>
+  </si>
+  <si>
+    <t>0.262392845033</t>
+  </si>
+  <si>
+    <t>0.260876708689</t>
+  </si>
+  <si>
+    <t>0.245901850743</t>
+  </si>
+  <si>
+    <t>0.230828595535</t>
+  </si>
+  <si>
+    <t>2047.92952877</t>
+  </si>
+  <si>
+    <t>833.362929874</t>
+  </si>
+  <si>
+    <t>359.205607477</t>
+  </si>
+  <si>
+    <t>272.73264915</t>
+  </si>
+  <si>
+    <t>0.070386691843</t>
+  </si>
+  <si>
+    <t>0.0161600412739</t>
+  </si>
+  <si>
+    <t>165.037383178</t>
+  </si>
+  <si>
+    <t>46.2447623169</t>
+  </si>
+  <si>
+    <t>0.616822429907</t>
+  </si>
+  <si>
+    <t>194.330199765</t>
+  </si>
+  <si>
+    <t>0.989534883721</t>
+  </si>
+  <si>
+    <t>1.02625298329</t>
+  </si>
+  <si>
+    <t>0.887711864407</t>
+  </si>
+  <si>
+    <t>0.278194624785</t>
+  </si>
+  <si>
+    <t>0.246101267824</t>
+  </si>
+  <si>
+    <t>0.239537300994</t>
+  </si>
+  <si>
+    <t>0.236166806397</t>
+  </si>
+  <si>
+    <t>1547.71268119</t>
+  </si>
+  <si>
+    <t>497.42237648</t>
+  </si>
+  <si>
+    <t>195.588785047</t>
+  </si>
+  <si>
+    <t>105.472231653</t>
+  </si>
+  <si>
+    <t>0.0825072092901</t>
+  </si>
+  <si>
+    <t>0.026994221425</t>
+  </si>
+  <si>
+    <t>125.635514019</t>
+  </si>
+  <si>
+    <t>37.8171677682</t>
+  </si>
+  <si>
+    <t>0.588785046729</t>
+  </si>
+  <si>
+    <t>200.211864407</t>
+  </si>
+  <si>
+    <t>0.993983152828</t>
+  </si>
+  <si>
+    <t>1.00241254524</t>
+  </si>
+  <si>
+    <t>0.996394230769</t>
+  </si>
+  <si>
+    <t>0.303697968429</t>
+  </si>
+  <si>
+    <t>0.237275690876</t>
+  </si>
+  <si>
+    <t>0.236168918618</t>
+  </si>
+  <si>
+    <t>0.222857422077</t>
+  </si>
+  <si>
+    <t>1622.41461082</t>
+  </si>
+  <si>
+    <t>365.558555116</t>
+  </si>
+  <si>
+    <t>217.429906542</t>
+  </si>
+  <si>
+    <t>74.1974017921</t>
+  </si>
+  <si>
+    <t>0.0982265413856</t>
+  </si>
+  <si>
+    <t>0.0329044243809</t>
+  </si>
+  <si>
+    <t>156.168224299</t>
+  </si>
+  <si>
+    <t>36.3049096809</t>
+  </si>
+  <si>
+    <t>0.551401869159</t>
+  </si>
+  <si>
+    <t>150.752051048</t>
+  </si>
+  <si>
+    <t>0.990966576332</t>
+  </si>
+  <si>
+    <t>0.98927613941</t>
+  </si>
+  <si>
+    <t>0.996438112199</t>
+  </si>
+  <si>
+    <t>0.26117022933</t>
+  </si>
+  <si>
+    <t>0.255630339954</t>
+  </si>
+  <si>
+    <t>0.245165263466</t>
+  </si>
+  <si>
+    <t>0.23803416725</t>
+  </si>
+  <si>
+    <t>1709.62573986</t>
+  </si>
+  <si>
+    <t>388.32451905</t>
+  </si>
+  <si>
+    <t>263.420560748</t>
+  </si>
+  <si>
+    <t>72.3981769512</t>
+  </si>
+  <si>
+    <t>0.0782606056657</t>
+  </si>
+  <si>
+    <t>0.0188079317506</t>
+  </si>
+  <si>
+    <t>152.869158879</t>
+  </si>
+  <si>
+    <t>41.245806156</t>
+  </si>
+  <si>
+    <t>0.514018691589</t>
+  </si>
+  <si>
+    <t>82.235206365</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>1334.82379653</t>
+  </si>
+  <si>
+    <t>119.058182357</t>
+  </si>
+  <si>
+    <t>165.317757009</t>
+  </si>
+  <si>
+    <t>21.3066608561</t>
+  </si>
+  <si>
+    <t>0.0613882979698</t>
+  </si>
+  <si>
+    <t>0.0198897251912</t>
+  </si>
+  <si>
+    <t>130.401869159</t>
+  </si>
+  <si>
+    <t>17.9427228959</t>
+  </si>
+  <si>
+    <t>85.7754149378</t>
+  </si>
+  <si>
+    <t>1.02226935313</t>
+  </si>
+  <si>
+    <t>1.00586666667</t>
+  </si>
+  <si>
+    <t>1.13843351548</t>
+  </si>
+  <si>
+    <t>0.262164450144</t>
+  </si>
+  <si>
+    <t>0.247458329971</t>
+  </si>
+  <si>
+    <t>0.246861135854</t>
+  </si>
+  <si>
+    <t>0.243516084031</t>
+  </si>
+  <si>
+    <t>2496.00106542</t>
+  </si>
+  <si>
+    <t>798.844223529</t>
+  </si>
+  <si>
+    <t>424.08411215</t>
+  </si>
+  <si>
+    <t>495.374079768</t>
+  </si>
+  <si>
+    <t>0.0658648349016</t>
+  </si>
+  <si>
+    <t>0.03190916743</t>
+  </si>
+  <si>
+    <t>123.588785047</t>
+  </si>
+  <si>
+    <t>33.3701845967</t>
+  </si>
+  <si>
+    <t>0.560747663551</t>
+  </si>
+  <si>
+    <t>92.8551375632</t>
+  </si>
+  <si>
+    <t>0.905439755974</t>
+  </si>
+  <si>
+    <t>1.10319685923</t>
+  </si>
+  <si>
+    <t>0.952457264957</t>
+  </si>
+  <si>
+    <t>0.300497089795</t>
+  </si>
+  <si>
+    <t>0.248113945919</t>
+  </si>
+  <si>
+    <t>0.239630532496</t>
+  </si>
+  <si>
+    <t>0.21175843179</t>
+  </si>
+  <si>
+    <t>1888.82060029</t>
+  </si>
+  <si>
+    <t>663.905006098</t>
+  </si>
+  <si>
+    <t>242.252336449</t>
+  </si>
+  <si>
+    <t>150.266187083</t>
+  </si>
+  <si>
+    <t>0.0713999582589</t>
+  </si>
+  <si>
+    <t>0.0252387898809</t>
+  </si>
+  <si>
+    <t>142.401869159</t>
+  </si>
+  <si>
+    <t>44.0973561445</t>
+  </si>
+  <si>
+    <t>0.495327102804</t>
+  </si>
+  <si>
+    <t>121.509919177</t>
+  </si>
+  <si>
+    <t>0.876368319382</t>
+  </si>
+  <si>
+    <t>1.1278140886</t>
+  </si>
+  <si>
+    <t>0.999274310595</t>
+  </si>
+  <si>
+    <t>0.329939268638</t>
+  </si>
+  <si>
+    <t>0.233838925729</t>
+  </si>
+  <si>
+    <t>0.220077820993</t>
+  </si>
+  <si>
+    <t>0.21614398464</t>
+  </si>
+  <si>
+    <t>1115.74228685</t>
+  </si>
+  <si>
+    <t>299.942410626</t>
+  </si>
+  <si>
+    <t>165.168224299</t>
+  </si>
+  <si>
+    <t>60.2718895717</t>
+  </si>
+  <si>
+    <t>0.0836572880256</t>
+  </si>
+  <si>
+    <t>0.0335084664806</t>
+  </si>
+  <si>
+    <t>95.9626168224</t>
+  </si>
+  <si>
+    <t>33.591811762</t>
+  </si>
+  <si>
+    <t>0.579439252336</t>
+  </si>
+  <si>
+    <t>83.8615618661</t>
+  </si>
+  <si>
+    <t>1.00101522843</t>
+  </si>
+  <si>
+    <t>1.93516699411</t>
+  </si>
+  <si>
+    <t>0.998039215686</t>
+  </si>
+  <si>
+    <t>0.472565883146</t>
+  </si>
+  <si>
+    <t>0.245481306723</t>
+  </si>
+  <si>
+    <t>0.146726278031</t>
+  </si>
+  <si>
+    <t>0.135226532101</t>
+  </si>
+  <si>
+    <t>1392.34441504</t>
+  </si>
+  <si>
+    <t>377.574308242</t>
+  </si>
+  <si>
+    <t>224.747663551</t>
+  </si>
+  <si>
+    <t>95.2176153358</t>
+  </si>
+  <si>
+    <t>0.103449787831</t>
+  </si>
+  <si>
+    <t>0.0396768370973</t>
+  </si>
+  <si>
+    <t>112.457943925</t>
+  </si>
+  <si>
+    <t>35.8872274089</t>
+  </si>
+  <si>
+    <t>155.573847601</t>
+  </si>
+  <si>
+    <t>1.01917545542</t>
+  </si>
+  <si>
+    <t>0.995229007634</t>
+  </si>
+  <si>
+    <t>0.963235294118</t>
+  </si>
+  <si>
+    <t>0.267578096441</t>
+  </si>
+  <si>
+    <t>0.24936282697</t>
+  </si>
+  <si>
+    <t>0.242978441418</t>
+  </si>
+  <si>
+    <t>0.24008063517</t>
+  </si>
+  <si>
+    <t>1545.55993224</t>
+  </si>
+  <si>
+    <t>316.668432383</t>
+  </si>
+  <si>
+    <t>269.495327103</t>
+  </si>
+  <si>
+    <t>78.617656792</t>
+  </si>
+  <si>
+    <t>0.0954626175511</t>
+  </si>
+  <si>
+    <t>0.0306163880538</t>
+  </si>
+  <si>
+    <t>129.813084112</t>
+  </si>
+  <si>
+    <t>38.2322296003</t>
+  </si>
+  <si>
+    <t>0.598130841121</t>
+  </si>
+  <si>
+    <t>82.03125</t>
+  </si>
+  <si>
+    <t>1.00348432056</t>
+  </si>
+  <si>
+    <t>0.990631163708</t>
+  </si>
+  <si>
+    <t>1.00296735905</t>
+  </si>
+  <si>
+    <t>0.284058295036</t>
+  </si>
+  <si>
+    <t>0.253365766912</t>
+  </si>
+  <si>
+    <t>0.248186931519</t>
+  </si>
+  <si>
+    <t>0.214389006533</t>
+  </si>
+  <si>
+    <t>2396.44339292</t>
+  </si>
+  <si>
+    <t>1560.93264555</t>
+  </si>
+  <si>
+    <t>429.140186916</t>
+  </si>
+  <si>
+    <t>540.299578524</t>
+  </si>
+  <si>
+    <t>0.103747552203</t>
+  </si>
+  <si>
+    <t>0.0527850335443</t>
+  </si>
+  <si>
+    <t>138.112149533</t>
+  </si>
+  <si>
+    <t>44.9228470696</t>
+  </si>
+  <si>
+    <t>0.691588785047</t>
+  </si>
+  <si>
+    <t>117.038216561</t>
+  </si>
+  <si>
+    <t>1.00355113636</t>
+  </si>
+  <si>
+    <t>1.00643316655</t>
+  </si>
+  <si>
+    <t>1.00071530758</t>
+  </si>
+  <si>
+    <t>0.261892358653</t>
+  </si>
+  <si>
+    <t>0.250449641908</t>
+  </si>
+  <si>
+    <t>0.245173258381</t>
+  </si>
+  <si>
+    <t>0.242484741058</t>
+  </si>
+  <si>
+    <t>1618.08132006</t>
+  </si>
+  <si>
+    <t>178.630143441</t>
+  </si>
+  <si>
+    <t>240.401869159</t>
+  </si>
+  <si>
+    <t>30.7716521485</t>
+  </si>
+  <si>
+    <t>0.0931065859485</t>
+  </si>
+  <si>
+    <t>0.0330810369144</t>
+  </si>
+  <si>
+    <t>227.205607477</t>
+  </si>
+  <si>
+    <t>33.5023331083</t>
+  </si>
+  <si>
+    <t>0.644859813084</t>
+  </si>
+  <si>
+    <t>199.487334138</t>
+  </si>
+  <si>
+    <t>0.87447257384</t>
+  </si>
+  <si>
+    <t>0.939544103072</t>
+  </si>
+  <si>
+    <t>0.780959752322</t>
+  </si>
+  <si>
+    <t>0.290675265338</t>
+  </si>
+  <si>
+    <t>0.277312868774</t>
+  </si>
+  <si>
+    <t>0.245609630832</t>
+  </si>
+  <si>
+    <t>0.186402235055</t>
+  </si>
+  <si>
+    <t>1469.35345376</t>
+  </si>
+  <si>
+    <t>232.672455264</t>
+  </si>
+  <si>
+    <t>218.046728972</t>
+  </si>
+  <si>
+    <t>45.2268184391</t>
+  </si>
+  <si>
+    <t>0.0843712959152</t>
+  </si>
+  <si>
+    <t>0.0224677853954</t>
+  </si>
+  <si>
+    <t>184.738317757</t>
+  </si>
+  <si>
+    <t>44.1209756733</t>
+  </si>
+  <si>
+    <t>0.626168224299</t>
+  </si>
+  <si>
+    <t>0.933333333333</t>
+  </si>
+  <si>
+    <t>1.04486422668</t>
+  </si>
+  <si>
+    <t>0.916666666667</t>
+  </si>
+  <si>
+    <t>0.3069700495</t>
+  </si>
+  <si>
+    <t>0.237048288606</t>
+  </si>
+  <si>
+    <t>0.236179234304</t>
+  </si>
+  <si>
+    <t>0.21980242759</t>
+  </si>
+  <si>
+    <t>1366.15359902</t>
+  </si>
+  <si>
+    <t>583.300421781</t>
+  </si>
+  <si>
+    <t>216.644859813</t>
+  </si>
+  <si>
+    <t>133.998064733</t>
+  </si>
+  <si>
+    <t>0.100039973666</t>
+  </si>
+  <si>
+    <t>0.0447834281567</t>
+  </si>
+  <si>
+    <t>128.813084112</t>
+  </si>
+  <si>
+    <t>54.1854087407</t>
+  </si>
+  <si>
+    <t>173.895899054</t>
+  </si>
+  <si>
+    <t>0.994769874477</t>
+  </si>
+  <si>
+    <t>1.00314795383</t>
+  </si>
+  <si>
+    <t>0.966531440162</t>
+  </si>
+  <si>
+    <t>0.26807388852</t>
+  </si>
+  <si>
+    <t>0.253947049047</t>
+  </si>
+  <si>
+    <t>0.245744121721</t>
+  </si>
+  <si>
+    <t>0.232234940712</t>
+  </si>
+  <si>
+    <t>1760.21582887</t>
+  </si>
+  <si>
+    <t>491.966556935</t>
+  </si>
+  <si>
+    <t>287.38317757</t>
+  </si>
+  <si>
+    <t>84.4937253502</t>
+  </si>
+  <si>
+    <t>0.0825179674939</t>
+  </si>
+  <si>
+    <t>0.0330930653094</t>
+  </si>
+  <si>
+    <t>191.551401869</t>
+  </si>
+  <si>
+    <t>78.5880342899</t>
+  </si>
+  <si>
+    <t>169.095092025</t>
+  </si>
+  <si>
+    <t>0.982914572864</t>
+  </si>
+  <si>
+    <t>1.07219827586</t>
+  </si>
+  <si>
+    <t>0.982010582011</t>
+  </si>
+  <si>
+    <t>0.259309029049</t>
+  </si>
+  <si>
+    <t>0.255753561529</t>
+  </si>
+  <si>
+    <t>0.244073815929</t>
+  </si>
+  <si>
+    <t>0.240863593493</t>
+  </si>
+  <si>
+    <t>887.588252289</t>
+  </si>
+  <si>
+    <t>144.903142468</t>
+  </si>
+  <si>
+    <t>131.551401869</t>
+  </si>
+  <si>
+    <t>23.1848458583</t>
+  </si>
+  <si>
+    <t>0.0650547203516</t>
+  </si>
+  <si>
+    <t>0.0238682385759</t>
+  </si>
+  <si>
+    <t>111.626168224</t>
+  </si>
+  <si>
+    <t>27.9928306457</t>
+  </si>
+  <si>
+    <t>0.542056074766</t>
+  </si>
+  <si>
+    <t>136.223228995</t>
+  </si>
+  <si>
+    <t>1.02360876897</t>
+  </si>
+  <si>
+    <t>0.957223567393</t>
+  </si>
+  <si>
+    <t>1.0385582565</t>
+  </si>
+  <si>
+    <t>0.265053732586</t>
+  </si>
+  <si>
+    <t>0.260886948795</t>
+  </si>
+  <si>
+    <t>0.260217333789</t>
+  </si>
+  <si>
+    <t>0.21384198483</t>
+  </si>
+  <si>
+    <t>1040.39880894</t>
+  </si>
+  <si>
+    <t>137.424233495</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>23.3426327708</t>
+  </si>
+  <si>
+    <t>0.0774781454631</t>
+  </si>
+  <si>
+    <t>0.0297993593216</t>
+  </si>
+  <si>
+    <t>143.093457944</t>
+  </si>
+  <si>
+    <t>41.2243763996</t>
+  </si>
+  <si>
+    <t>143.804347826</t>
+  </si>
+  <si>
+    <t>1.38554216867</t>
+  </si>
+  <si>
+    <t>0.672609400324</t>
+  </si>
+  <si>
+    <t>0.697175141243</t>
+  </si>
+  <si>
+    <t>0.266248603535</t>
+  </si>
+  <si>
+    <t>0.253068031265</t>
+  </si>
+  <si>
+    <t>0.242698293225</t>
+  </si>
+  <si>
+    <t>0.237985071974</t>
+  </si>
+  <si>
+    <t>1761.09224286</t>
+  </si>
+  <si>
+    <t>373.689132</t>
+  </si>
+  <si>
+    <t>301.691588785</t>
+  </si>
+  <si>
+    <t>98.0184429732</t>
+  </si>
+  <si>
+    <t>0.0592924263985</t>
+  </si>
+  <si>
+    <t>0.0109541132555</t>
+  </si>
+  <si>
+    <t>179.448598131</t>
+  </si>
+  <si>
+    <t>38.6071112632</t>
+  </si>
+  <si>
+    <t>146.349557522</t>
+  </si>
+  <si>
+    <t>0.993843447669</t>
+  </si>
+  <si>
+    <t>0.999121265378</t>
+  </si>
+  <si>
+    <t>1.00176056338</t>
+  </si>
+  <si>
+    <t>0.275698170098</t>
+  </si>
+  <si>
+    <t>0.256144830804</t>
+  </si>
+  <si>
+    <t>0.239687525699</t>
+  </si>
+  <si>
+    <t>0.228469473399</t>
+  </si>
+  <si>
+    <t>1061.21508997</t>
+  </si>
+  <si>
+    <t>268.680819636</t>
+  </si>
+  <si>
+    <t>145.728971963</t>
+  </si>
+  <si>
+    <t>58.3211492543</t>
+  </si>
+  <si>
+    <t>0.0920015809672</t>
+  </si>
+  <si>
+    <t>0.038731388705</t>
+  </si>
+  <si>
+    <t>102.813084112</t>
+  </si>
+  <si>
+    <t>22.5848890186</t>
+  </si>
+  <si>
+    <t>180.540393013</t>
+  </si>
+  <si>
+    <t>1.05651672434</t>
+  </si>
+  <si>
+    <t>0.865269461078</t>
+  </si>
+  <si>
+    <t>1.02349336057</t>
+  </si>
+  <si>
+    <t>0.284663506663</t>
+  </si>
+  <si>
+    <t>0.243187148657</t>
+  </si>
+  <si>
+    <t>0.241583220842</t>
+  </si>
+  <si>
+    <t>0.230566123839</t>
+  </si>
+  <si>
+    <t>1071.74379637</t>
+  </si>
+  <si>
+    <t>147.945385144</t>
+  </si>
+  <si>
+    <t>154.485981308</t>
+  </si>
+  <si>
+    <t>33.0969588026</t>
+  </si>
+  <si>
+    <t>0.064760218731</t>
+  </si>
+  <si>
+    <t>0.015674739993</t>
+  </si>
+  <si>
+    <t>113.028037383</t>
+  </si>
+  <si>
+    <t>22.7692438663</t>
+  </si>
+  <si>
+    <t>108.088235294</t>
+  </si>
+  <si>
+    <t>1.67947310648</t>
+  </si>
+  <si>
+    <t>0.785344827586</t>
+  </si>
+  <si>
+    <t>1.23931623932</t>
+  </si>
+  <si>
+    <t>0.27873588332</t>
+  </si>
+  <si>
+    <t>0.252967446475</t>
+  </si>
+  <si>
+    <t>0.236624709017</t>
+  </si>
+  <si>
+    <t>0.231671961187</t>
+  </si>
+  <si>
+    <t>1386.17345727</t>
+  </si>
+  <si>
+    <t>264.44130756</t>
+  </si>
+  <si>
+    <t>194.757009346</t>
+  </si>
+  <si>
+    <t>43.2084365943</t>
+  </si>
+  <si>
+    <t>0.0907950003597</t>
+  </si>
+  <si>
+    <t>0.0247466202324</t>
+  </si>
+  <si>
+    <t>138.345794393</t>
+  </si>
+  <si>
+    <t>47.0349050748</t>
+  </si>
+  <si>
+    <t>199.72826087</t>
+  </si>
+  <si>
+    <t>1.00120918984</t>
+  </si>
+  <si>
+    <t>0.996385542169</t>
+  </si>
+  <si>
+    <t>0.986920332937</t>
+  </si>
+  <si>
+    <t>0.269113684898</t>
+  </si>
+  <si>
+    <t>0.249939506676</t>
+  </si>
+  <si>
+    <t>0.249137774997</t>
+  </si>
+  <si>
+    <t>0.231809033429</t>
+  </si>
+  <si>
+    <t>2618.98019767</t>
+  </si>
+  <si>
+    <t>731.905914877</t>
+  </si>
+  <si>
+    <t>485.448598131</t>
+  </si>
+  <si>
+    <t>154.28346491</t>
+  </si>
+  <si>
+    <t>0.0571933824896</t>
+  </si>
+  <si>
+    <t>0.0141092623564</t>
+  </si>
+  <si>
+    <t>284.588785047</t>
+  </si>
+  <si>
+    <t>100.664980897</t>
+  </si>
+  <si>
+    <t>0.523364485981</t>
+  </si>
+  <si>
+    <t>139.556962025</t>
+  </si>
+  <si>
+    <t>1.11898016997</t>
+  </si>
+  <si>
+    <t>0.743679775281</t>
+  </si>
+  <si>
+    <t>1.21191489362</t>
+  </si>
+  <si>
+    <t>0.261854595613</t>
+  </si>
+  <si>
+    <t>0.248986021837</t>
+  </si>
+  <si>
+    <t>0.246153753705</t>
+  </si>
+  <si>
+    <t>0.243005628845</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>1491.35423214</t>
+  </si>
+  <si>
+    <t>298.438456494</t>
+  </si>
+  <si>
+    <t>271.962616822</t>
+  </si>
+  <si>
+    <t>55.4812294997</t>
+  </si>
+  <si>
+    <t>0.0929004050307</t>
+  </si>
+  <si>
+    <t>0.0284172897537</t>
+  </si>
+  <si>
+    <t>174.598130841</t>
+  </si>
+  <si>
+    <t>77.9841656361</t>
+  </si>
+  <si>
+    <t>0.635514018692</t>
+  </si>
+  <si>
+    <t>170.314109166</t>
+  </si>
+  <si>
+    <t>1.0385026738</t>
+  </si>
+  <si>
+    <t>0.979057591623</t>
+  </si>
+  <si>
+    <t>0.662734212353</t>
+  </si>
+  <si>
+    <t>0.254302919097</t>
+  </si>
+  <si>
+    <t>0.252664311783</t>
+  </si>
+  <si>
+    <t>0.248214775447</t>
+  </si>
+  <si>
+    <t>0.244817993672</t>
+  </si>
+  <si>
+    <t>1295.47857733</t>
+  </si>
+  <si>
+    <t>318.595131166</t>
+  </si>
+  <si>
+    <t>140.196261682</t>
+  </si>
+  <si>
+    <t>66.4252006075</t>
+  </si>
+  <si>
+    <t>0.10705170707</t>
+  </si>
+  <si>
+    <t>0.0359524450984</t>
+  </si>
+  <si>
+    <t>100.364485981</t>
+  </si>
+  <si>
+    <t>50.3942202077</t>
+  </si>
+  <si>
+    <t>115.163649025</t>
+  </si>
+  <si>
+    <t>0.968960863698</t>
+  </si>
+  <si>
+    <t>1.04292751583</t>
+  </si>
+  <si>
+    <t>0.941059602649</t>
+  </si>
+  <si>
+    <t>0.261338159734</t>
+  </si>
+  <si>
+    <t>0.24692555924</t>
+  </si>
+  <si>
+    <t>0.246686077839</t>
+  </si>
+  <si>
+    <t>0.245050203187</t>
+  </si>
+  <si>
+    <t>1407.41838862</t>
+  </si>
+  <si>
+    <t>293.036561402</t>
+  </si>
+  <si>
+    <t>243.317757009</t>
+  </si>
+  <si>
+    <t>49.383980552</t>
+  </si>
+  <si>
+    <t>0.104572085269</t>
+  </si>
+  <si>
+    <t>0.0311697356708</t>
+  </si>
+  <si>
+    <t>160.308411215</t>
+  </si>
+  <si>
+    <t>70.4269239105</t>
+  </si>
+  <si>
+    <t>92.6470588235</t>
+  </si>
+  <si>
+    <t>0.980769230769</t>
+  </si>
+  <si>
+    <t>1.02941176471</t>
+  </si>
+  <si>
+    <t>0.98495821727</t>
+  </si>
+  <si>
+    <t>0.269507843023</t>
+  </si>
+  <si>
+    <t>0.250081335882</t>
+  </si>
+  <si>
+    <t>0.243919285527</t>
+  </si>
+  <si>
+    <t>0.236491535568</t>
+  </si>
+  <si>
+    <t>1052.24290327</t>
+  </si>
+  <si>
+    <t>184.333020683</t>
+  </si>
+  <si>
+    <t>186.280373832</t>
+  </si>
+  <si>
+    <t>35.559031975</t>
+  </si>
+  <si>
+    <t>0.106185875697</t>
+  </si>
+  <si>
+    <t>0.0279086932151</t>
+  </si>
+  <si>
+    <t>81.3457943925</t>
+  </si>
+  <si>
+    <t>21.4850971187</t>
+  </si>
+  <si>
+    <t>0.570093457944</t>
+  </si>
+  <si>
+    <t>106.831395349</t>
+  </si>
+  <si>
+    <t>0.994858611825</t>
+  </si>
+  <si>
+    <t>1.01368078176</t>
+  </si>
+  <si>
+    <t>0.989046391753</t>
+  </si>
+  <si>
+    <t>0.280243263888</t>
+  </si>
+  <si>
+    <t>0.246292898355</t>
+  </si>
+  <si>
+    <t>0.241521047705</t>
+  </si>
+  <si>
+    <t>0.231942790052</t>
+  </si>
+  <si>
+    <t>1587.05971568</t>
+  </si>
+  <si>
+    <t>716.49978629</t>
+  </si>
+  <si>
+    <t>275.654205607</t>
+  </si>
+  <si>
+    <t>206.621515142</t>
+  </si>
+  <si>
+    <t>0.082844794776</t>
+  </si>
+  <si>
+    <t>0.0513998161712</t>
+  </si>
+  <si>
+    <t>104.074766355</t>
+  </si>
+  <si>
+    <t>77.0109472658</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>0.993914807302</t>
+  </si>
+  <si>
+    <t>0.997302764666</t>
+  </si>
+  <si>
+    <t>1.01784488675</t>
+  </si>
+  <si>
+    <t>0.251013223576</t>
+  </si>
+  <si>
+    <t>0.250907502812</t>
+  </si>
+  <si>
+    <t>0.249883175985</t>
+  </si>
+  <si>
+    <t>0.248196097627</t>
+  </si>
+  <si>
+    <t>1320.58377512</t>
+  </si>
+  <si>
+    <t>428.862457006</t>
+  </si>
+  <si>
+    <t>217.859813084</t>
+  </si>
+  <si>
+    <t>83.4635124933</t>
+  </si>
+  <si>
+    <t>0.103004016371</t>
+  </si>
+  <si>
+    <t>0.0361668275303</t>
+  </si>
+  <si>
+    <t>123.392523364</t>
+  </si>
+  <si>
+    <t>48.5046981074</t>
+  </si>
+  <si>
+    <t>175.557324841</t>
+  </si>
+  <si>
+    <t>0.992623814542</t>
+  </si>
+  <si>
+    <t>0.997896950578</t>
+  </si>
+  <si>
+    <t>0.501582278481</t>
+  </si>
+  <si>
+    <t>0.257330259544</t>
+  </si>
+  <si>
+    <t>0.25212180868</t>
+  </si>
+  <si>
+    <t>0.245992136464</t>
+  </si>
+  <si>
+    <t>0.244555795312</t>
+  </si>
+  <si>
+    <t>3452.06788861</t>
+  </si>
+  <si>
+    <t>1503.28771596</t>
+  </si>
+  <si>
+    <t>744.411214953</t>
+  </si>
+  <si>
+    <t>294.628261052</t>
+  </si>
+  <si>
+    <t>0.0839849012309</t>
+  </si>
+  <si>
+    <t>0.0187484677457</t>
+  </si>
+  <si>
+    <t>194.981308411</t>
+  </si>
+  <si>
+    <t>115.30682201</t>
+  </si>
+  <si>
+    <t>0.485981308411</t>
+  </si>
+  <si>
+    <t>102.781230578</t>
+  </si>
+  <si>
+    <t>1.00062189055</t>
+  </si>
+  <si>
+    <t>0.99320568252</t>
+  </si>
+  <si>
+    <t>1.00872274143</t>
+  </si>
+  <si>
+    <t>0.288187558551</t>
+  </si>
+  <si>
+    <t>0.266828816693</t>
+  </si>
+  <si>
+    <t>0.226081989398</t>
+  </si>
+  <si>
+    <t>0.218901635358</t>
+  </si>
+  <si>
+    <t>2335.22567178</t>
+  </si>
+  <si>
+    <t>1632.17430536</t>
+  </si>
+  <si>
+    <t>447.570093458</t>
+  </si>
+  <si>
+    <t>342.767682752</t>
+  </si>
+  <si>
+    <t>0.0999649043812</t>
+  </si>
+  <si>
+    <t>0.029264552598</t>
+  </si>
+  <si>
+    <t>117.626168224</t>
+  </si>
+  <si>
+    <t>88.7588903921</t>
+  </si>
+  <si>
+    <t>88.2</t>
+  </si>
+  <si>
+    <t>0.986842105263</t>
+  </si>
+  <si>
+    <t>0.975359342916</t>
+  </si>
+  <si>
+    <t>1.03451938396</t>
+  </si>
+  <si>
+    <t>0.319356780265</t>
+  </si>
+  <si>
+    <t>0.237456078795</t>
+  </si>
+  <si>
+    <t>0.222672165032</t>
+  </si>
+  <si>
+    <t>0.220514975907</t>
+  </si>
+  <si>
+    <t>1798.59243197</t>
+  </si>
+  <si>
+    <t>543.285771291</t>
+  </si>
+  <si>
+    <t>328.46728972</t>
+  </si>
+  <si>
+    <t>181.96848437</t>
+  </si>
+  <si>
+    <t>0.0826969579275</t>
+  </si>
+  <si>
+    <t>0.037743347532</t>
+  </si>
+  <si>
+    <t>95.1495327103</t>
+  </si>
+  <si>
+    <t>25.2593292614</t>
+  </si>
+  <si>
+    <t>119.750181028</t>
+  </si>
+  <si>
+    <t>1.09516256939</t>
+  </si>
+  <si>
+    <t>0.925844346549</t>
+  </si>
+  <si>
+    <t>0.986956521739</t>
+  </si>
+  <si>
+    <t>0.256196464092</t>
+  </si>
+  <si>
+    <t>0.252267208633</t>
+  </si>
+  <si>
+    <t>0.247896353685</t>
+  </si>
+  <si>
+    <t>0.243639973591</t>
+  </si>
+  <si>
+    <t>2014.03566395</t>
+  </si>
+  <si>
+    <t>1050.25862496</t>
+  </si>
+  <si>
+    <t>386.037383178</t>
+  </si>
+  <si>
+    <t>257.858829929</t>
+  </si>
+  <si>
+    <t>0.112090329916</t>
+  </si>
+  <si>
+    <t>0.0393603454911</t>
+  </si>
+  <si>
+    <t>105.542056075</t>
+  </si>
+  <si>
+    <t>50.4233072451</t>
+  </si>
+  <si>
+    <t>142.441860465</t>
+  </si>
+  <si>
+    <t>1.00259067358</t>
+  </si>
+  <si>
+    <t>0.994845360825</t>
+  </si>
+  <si>
+    <t>1.00779220779</t>
+  </si>
+  <si>
+    <t>0.256263343702</t>
+  </si>
+  <si>
+    <t>0.250784020485</t>
+  </si>
+  <si>
+    <t>0.246714537596</t>
+  </si>
+  <si>
+    <t>0.246238098218</t>
+  </si>
+  <si>
+    <t>1538.67245643</t>
+  </si>
+  <si>
+    <t>278.186831744</t>
+  </si>
+  <si>
+    <t>261.130841121</t>
+  </si>
+  <si>
+    <t>47.5726859731</t>
+  </si>
+  <si>
+    <t>0.0813154584918</t>
+  </si>
+  <si>
+    <t>0.0219709074075</t>
+  </si>
+  <si>
+    <t>206.626168224</t>
+  </si>
+  <si>
+    <t>64.7939254342</t>
+  </si>
+  <si>
+    <t>82.276119403</t>
+  </si>
+  <si>
+    <t>1.66115702479</t>
+  </si>
+  <si>
+    <t>1.23217922607</t>
+  </si>
+  <si>
+    <t>0.762422360248</t>
+  </si>
+  <si>
+    <t>0.258022494029</t>
+  </si>
+  <si>
+    <t>0.251772972551</t>
+  </si>
+  <si>
+    <t>0.245588241807</t>
+  </si>
+  <si>
+    <t>0.244616291614</t>
+  </si>
+  <si>
+    <t>1628.71854509</t>
+  </si>
+  <si>
+    <t>386.869156852</t>
+  </si>
+  <si>
+    <t>270.682242991</t>
+  </si>
+  <si>
+    <t>65.5035988354</t>
+  </si>
+  <si>
+    <t>0.0765421556508</t>
+  </si>
+  <si>
+    <t>0.0305522758044</t>
+  </si>
+  <si>
+    <t>185.728971963</t>
+  </si>
+  <si>
+    <t>94.5349235862</t>
+  </si>
+  <si>
+    <t>82.194333996</t>
+  </si>
+  <si>
+    <t>0.985308521058</t>
+  </si>
+  <si>
+    <t>1.06077922078</t>
+  </si>
+  <si>
+    <t>0.968309859155</t>
+  </si>
+  <si>
+    <t>0.263692236556</t>
+  </si>
+  <si>
+    <t>0.257589244129</t>
+  </si>
+  <si>
+    <t>0.239497257002</t>
+  </si>
+  <si>
+    <t>0.239221262313</t>
+  </si>
+  <si>
+    <t>1842.61235051</t>
+  </si>
+  <si>
+    <t>343.131043731</t>
+  </si>
+  <si>
+    <t>364.280373832</t>
+  </si>
+  <si>
+    <t>94.9452172977</t>
+  </si>
+  <si>
+    <t>0.0996220021981</t>
+  </si>
+  <si>
+    <t>0.0334644763115</t>
+  </si>
+  <si>
+    <t>190.906542056</t>
+  </si>
+  <si>
+    <t>53.9858985933</t>
+  </si>
+  <si>
+    <t>0.700934579439</t>
+  </si>
+  <si>
+    <t>93.6968838527</t>
+  </si>
+  <si>
+    <t>0.993806306306</t>
+  </si>
+  <si>
+    <t>1.26766595289</t>
+  </si>
+  <si>
+    <t>0.807958477509</t>
+  </si>
+  <si>
+    <t>0.254329781465</t>
+  </si>
+  <si>
+    <t>0.250337661617</t>
+  </si>
+  <si>
+    <t>0.249532994288</t>
+  </si>
+  <si>
+    <t>0.24579956263</t>
+  </si>
+  <si>
+    <t>2031.43079164</t>
+  </si>
+  <si>
+    <t>470.185665126</t>
+  </si>
+  <si>
+    <t>365.439252336</t>
+  </si>
+  <si>
+    <t>62.4227638759</t>
+  </si>
+  <si>
+    <t>0.100243351838</t>
+  </si>
+  <si>
+    <t>0.0354163507016</t>
+  </si>
+  <si>
+    <t>251.579439252</t>
+  </si>
+  <si>
+    <t>120.779712769</t>
+  </si>
+  <si>
+    <t>93.5378959276</t>
+  </si>
+  <si>
+    <t>1.19057239057</t>
+  </si>
+  <si>
+    <t>0.995975855131</t>
+  </si>
+  <si>
+    <t>0.995327102804</t>
+  </si>
+  <si>
+    <t>0.261612130826</t>
+  </si>
+  <si>
+    <t>0.246979460124</t>
+  </si>
+  <si>
+    <t>0.24597246326</t>
+  </si>
+  <si>
+    <t>0.24543594579</t>
+  </si>
+  <si>
+    <t>1196.76499938</t>
+  </si>
+  <si>
+    <t>228.926999735</t>
+  </si>
+  <si>
+    <t>199.710280374</t>
+  </si>
+  <si>
+    <t>46.3817981834</t>
+  </si>
+  <si>
+    <t>0.11302564981</t>
+  </si>
+  <si>
+    <t>0.0397898158036</t>
+  </si>
+  <si>
+    <t>130.392523364</t>
+  </si>
+  <si>
+    <t>58.2138752464</t>
+  </si>
+  <si>
+    <t>87.3613312203</t>
+  </si>
+  <si>
+    <t>1.00052854123</t>
+  </si>
+  <si>
+    <t>0.994742376446</t>
+  </si>
+  <si>
+    <t>1.00901856764</t>
+  </si>
+  <si>
+    <t>0.259673598883</t>
+  </si>
+  <si>
+    <t>0.253902123995</t>
+  </si>
+  <si>
+    <t>0.247633906625</t>
+  </si>
+  <si>
+    <t>0.238790370497</t>
+  </si>
+  <si>
+    <t>1390.33111423</t>
+  </si>
+  <si>
+    <t>287.616963647</t>
+  </si>
+  <si>
+    <t>260.794392523</t>
+  </si>
+  <si>
+    <t>58.4604248784</t>
+  </si>
+  <si>
+    <t>0.095824222048</t>
+  </si>
+  <si>
+    <t>0.0295670279621</t>
+  </si>
+  <si>
+    <t>171.261682243</t>
+  </si>
+  <si>
+    <t>88.6724874303</t>
+  </si>
+  <si>
+    <t>182.73480663</t>
+  </si>
+  <si>
+    <t>1.03665521191</t>
+  </si>
+  <si>
+    <t>0.661363636364</t>
+  </si>
+  <si>
+    <t>1.46829810901</t>
+  </si>
+  <si>
+    <t>0.263156042997</t>
+  </si>
+  <si>
+    <t>0.248413422307</t>
+  </si>
+  <si>
+    <t>0.24539712447</t>
+  </si>
+  <si>
+    <t>0.243033410226</t>
+  </si>
+  <si>
+    <t>979.823248976</t>
+  </si>
+  <si>
+    <t>150.643193343</t>
+  </si>
+  <si>
+    <t>123.14953271</t>
+  </si>
+  <si>
+    <t>23.2530989748</t>
+  </si>
+  <si>
+    <t>0.115486722559</t>
+  </si>
+  <si>
+    <t>0.0448758756469</t>
+  </si>
+  <si>
+    <t>80.4579439252</t>
+  </si>
+  <si>
+    <t>20.0868582946</t>
+  </si>
+  <si>
+    <t>171.728971963</t>
+  </si>
+  <si>
+    <t>1.00732217573</t>
+  </si>
+  <si>
+    <t>0.993762993763</t>
+  </si>
+  <si>
+    <t>1.06888888889</t>
+  </si>
+  <si>
+    <t>0.259230074695</t>
+  </si>
+  <si>
+    <t>0.255640220616</t>
+  </si>
+  <si>
+    <t>0.245686841064</t>
+  </si>
+  <si>
+    <t>0.239442863626</t>
+  </si>
+  <si>
+    <t>3824.11489876</t>
+  </si>
+  <si>
+    <t>979.16756092</t>
+  </si>
+  <si>
+    <t>774.186915888</t>
+  </si>
+  <si>
+    <t>257.233815993</t>
+  </si>
+  <si>
+    <t>0.0723925754641</t>
+  </si>
+  <si>
+    <t>0.0256451687027</t>
+  </si>
+  <si>
+    <t>296.392523364</t>
+  </si>
+  <si>
+    <t>108.536892992</t>
+  </si>
+  <si>
+    <t>170.665634675</t>
+  </si>
+  <si>
+    <t>1.01465968586</t>
+  </si>
+  <si>
+    <t>1.07424071991</t>
+  </si>
+  <si>
+    <t>0.933823529412</t>
+  </si>
+  <si>
+    <t>0.277499145622</t>
+  </si>
+  <si>
+    <t>0.252180080914</t>
+  </si>
+  <si>
+    <t>0.240980613422</t>
+  </si>
+  <si>
+    <t>0.229340160042</t>
+  </si>
+  <si>
+    <t>3820.44028429</t>
+  </si>
+  <si>
+    <t>1002.97212377</t>
+  </si>
+  <si>
+    <t>787.841121495</t>
+  </si>
+  <si>
+    <t>224.143860243</t>
+  </si>
+  <si>
+    <t>0.0796931578319</t>
+  </si>
+  <si>
+    <t>0.0361819111712</t>
+  </si>
+  <si>
+    <t>247.439252336</t>
+  </si>
+  <si>
+    <t>144.505808024</t>
+  </si>
+  <si>
+    <t>163.737623762</t>
+  </si>
+  <si>
+    <t>1.05759162304</t>
+  </si>
+  <si>
+    <t>1.01272534464</t>
+  </si>
+  <si>
+    <t>1.01071811361</t>
+  </si>
+  <si>
+    <t>0.255949692252</t>
+  </si>
+  <si>
+    <t>0.251693631788</t>
+  </si>
+  <si>
+    <t>0.248040342721</t>
+  </si>
+  <si>
+    <t>0.244316333239</t>
+  </si>
+  <si>
+    <t>4008.55038761</t>
+  </si>
+  <si>
+    <t>817.588213454</t>
+  </si>
+  <si>
+    <t>786.700934579</t>
+  </si>
+  <si>
+    <t>205.342167825</t>
+  </si>
+  <si>
+    <t>0.0864528627107</t>
+  </si>
+  <si>
+    <t>0.031874186174</t>
+  </si>
+  <si>
+    <t>309.514018692</t>
+  </si>
+  <si>
+    <t>93.1565223371</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>0.944924406048</t>
+  </si>
+  <si>
+    <t>1.00871459695</t>
+  </si>
+  <si>
+    <t>0.713286713287</t>
+  </si>
+  <si>
+    <t>0.275864956965</t>
+  </si>
+  <si>
+    <t>0.262014364659</t>
+  </si>
+  <si>
+    <t>0.231970795199</t>
+  </si>
+  <si>
+    <t>0.230149883177</t>
+  </si>
+  <si>
+    <t>4720.03848708</t>
+  </si>
+  <si>
+    <t>1372.16016573</t>
+  </si>
+  <si>
+    <t>1089.78504673</t>
+  </si>
+  <si>
+    <t>263.260008926</t>
+  </si>
+  <si>
+    <t>0.057031624887</t>
+  </si>
+  <si>
+    <t>0.0175842800359</t>
+  </si>
+  <si>
+    <t>431.46728972</t>
+  </si>
+  <si>
+    <t>188.137219646</t>
+  </si>
+  <si>
+    <t>0.663551401869</t>
+  </si>
+  <si>
+    <t>181.531284303</t>
+  </si>
+  <si>
+    <t>0.980624327234</t>
+  </si>
+  <si>
+    <t>1.03337041157</t>
+  </si>
+  <si>
+    <t>0.991179713341</t>
+  </si>
+  <si>
+    <t>0.259227851784</t>
+  </si>
+  <si>
+    <t>0.253579598207</t>
+  </si>
+  <si>
+    <t>0.25148038946</t>
+  </si>
+  <si>
+    <t>0.235712160549</t>
+  </si>
+  <si>
+    <t>1516.20671045</t>
+  </si>
+  <si>
+    <t>394.532556968</t>
+  </si>
+  <si>
+    <t>234.822429907</t>
+  </si>
+  <si>
+    <t>59.9965439946</t>
+  </si>
+  <si>
+    <t>0.124922873309</t>
+  </si>
+  <si>
+    <t>0.0438046940695</t>
+  </si>
+  <si>
+    <t>203.644859813</t>
+  </si>
+  <si>
+    <t>81.5639480026</t>
+  </si>
+  <si>
+    <t>85.9537422037</t>
+  </si>
+  <si>
+    <t>0.997925311203</t>
+  </si>
+  <si>
+    <t>0.972264246092</t>
+  </si>
+  <si>
+    <t>1.00202122284</t>
+  </si>
+  <si>
+    <t>0.258065393661</t>
+  </si>
+  <si>
+    <t>0.253708391315</t>
+  </si>
+  <si>
+    <t>0.245767127473</t>
+  </si>
+  <si>
+    <t>0.24245908755</t>
+  </si>
+  <si>
+    <t>2884.79989462</t>
+  </si>
+  <si>
+    <t>991.453357858</t>
+  </si>
+  <si>
+    <t>521.728971963</t>
+  </si>
+  <si>
+    <t>178.101229752</t>
+  </si>
+  <si>
+    <t>0.0816295380008</t>
+  </si>
+  <si>
+    <t>0.0245732721922</t>
+  </si>
+  <si>
+    <t>274.747663551</t>
+  </si>
+  <si>
+    <t>133.203455756</t>
+  </si>
+  <si>
+    <t>106.282133676</t>
+  </si>
+  <si>
+    <t>0.984810126582</t>
+  </si>
+  <si>
+    <t>1.00190234623</t>
+  </si>
+  <si>
+    <t>1.01676337847</t>
+  </si>
+  <si>
+    <t>0.252380393151</t>
+  </si>
+  <si>
+    <t>0.252371521387</t>
+  </si>
+  <si>
+    <t>0.251051666508</t>
+  </si>
+  <si>
+    <t>0.244196418954</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>2_-_Innervision.wav</t>
+  </si>
+  <si>
+    <t>Guerilla_poubelle_-_Depuis_que_je_suis_jeune.wav</t>
+  </si>
+  <si>
+    <t>4_-_Libertina_Grimm.wav</t>
+  </si>
+  <si>
+    <t>8_-_Lovesick_for_Mina.wav</t>
+  </si>
+  <si>
+    <t>5_-_Radio-Video.wav</t>
+  </si>
+  <si>
+    <t>2_-_B.wav</t>
+  </si>
+  <si>
+    <t>1_-_Attack.wav</t>
+  </si>
+  <si>
+    <t>03.wav</t>
+  </si>
+  <si>
+    <t>02_Mudvayne_-_Dig.wav</t>
+  </si>
+  <si>
+    <t>8_-_Medusa_and_Hemlock.wav</t>
+  </si>
+  <si>
+    <t>5_-_Feuer_frei!.wav</t>
+  </si>
+  <si>
+    <t>Guerilla_poubelle_-_Cogne_sur_un_flic_pas_sur_ta_femme.wav</t>
+  </si>
+  <si>
+    <t>01_Laid_To_Rest.wav</t>
+  </si>
+  <si>
+    <t>6.wav</t>
+  </si>
+  <si>
+    <t>4_-_Ich_will.wav</t>
+  </si>
+  <si>
+    <t>12_-_Fuck_the_System.wav</t>
+  </si>
+  <si>
+    <t>05_Mudvayne_-_Death_Blooms.wav</t>
+  </si>
+  <si>
+    <t>3_-_Nemesis.wav</t>
+  </si>
+  <si>
+    <t>8_-_Holy_Mountains.wav</t>
+  </si>
+  <si>
+    <t>4_Sorgens_Kammer.wav</t>
+  </si>
+  <si>
+    <t>rap</t>
+  </si>
+  <si>
+    <t>Naâman_x_Phases_Cachées_-_Crossover.wav</t>
+  </si>
+  <si>
+    <t>Mc_solaar_-_hasta_la_vista.wav</t>
+  </si>
+  <si>
+    <t>NTM_-_Pose_Ton_Gun.wav</t>
+  </si>
+  <si>
+    <t>OU_-_Hippocampe_Fou.wav</t>
+  </si>
+  <si>
+    <t>7_-_Les_Mains_sales.wav</t>
+  </si>
+  <si>
+    <t>Stupeflip_-_Stupeflip.wav</t>
+  </si>
+  <si>
+    <t>Sniper_-_Brule_(Clip_Vidéo_Officiel_-_HD).wav</t>
+  </si>
+  <si>
+    <t>KRS_One_-_MC's_Act_Like_They_Don't_Know.wav</t>
+  </si>
+  <si>
+    <t>2_-_Cherche_pas_à_comprendre.wav</t>
+  </si>
+  <si>
+    <t>snoop_doggy_dogg_-_who_am_I_(_what's_my_name_).wav</t>
+  </si>
+  <si>
+    <t>10_-_Quand_tu_allais_on_revenait.wav</t>
+  </si>
+  <si>
+    <t>KRS_One_Sound_of_Da_Police.wav</t>
+  </si>
+  <si>
+    <t>NTM_-_That_s_my_people.wav</t>
+  </si>
+  <si>
+    <t>Mc_Solaar_-_Playmate_(Cinquieme_As_Fifth_Ace).wav</t>
+  </si>
+  <si>
+    <t>06_-_HYMNE_AU_CINÉMA_(Hippocampe_Fou).wav</t>
+  </si>
+  <si>
+    <t>Stupeflip_-_Stupeflip_Vite_!!!.wav</t>
+  </si>
+  <si>
+    <t>7_-_LEmpire_du_côté_obscur.wav</t>
+  </si>
+  <si>
+    <t>Sniper-Nique_le_système.wav</t>
+  </si>
+  <si>
+    <t>Kendrick_Lamar_-King_Kunta.wav</t>
+  </si>
+  <si>
+    <t>Phases_Cachées_-_Style_Libre.wav</t>
   </si>
 </sst>
 </file>
@@ -236,7 +2615,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,6 +4229,3546 @@
         <v>0.229531634673</v>
       </c>
     </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3657.7452361506898</v>
+      </c>
+      <c r="D23" s="1">
+        <v>997.43213563243705</v>
+      </c>
+      <c r="E23" s="1">
+        <v>717.89719626168198</v>
+      </c>
+      <c r="F23" s="1">
+        <v>247.98571463904099</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.6814612189465902E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.2443874328029399E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>348.28037383177502</v>
+      </c>
+      <c r="J23" s="1">
+        <v>127.997794548211</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.55140186915887801</v>
+      </c>
+      <c r="L23" s="1">
+        <v>157.5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.99150141643059497</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.00094517958412</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.00666032350142</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.26926978346664399</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.25908321146073299</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.24062399399650899</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.23102301107611201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3183.1650533101501</v>
+      </c>
+      <c r="D24" s="1">
+        <v>433.11796452175798</v>
+      </c>
+      <c r="E24" s="1">
+        <v>608.86915887850398</v>
+      </c>
+      <c r="F24" s="1">
+        <v>97.594534483109001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.1267432912367397E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6.6851053699740499E-3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>360.18691588784998</v>
+      </c>
+      <c r="J24" s="1">
+        <v>67.713957318428001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.56074766355140104</v>
+      </c>
+      <c r="L24" s="1">
+        <v>130.73122529644201</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.06661045531197</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.71661631419939498</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.6819105691056899</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.28094844241499201</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.26464035926512203</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.23593238815195799</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.218478810167926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3312.9851859986702</v>
+      </c>
+      <c r="D25" s="1">
+        <v>391.18416600677102</v>
+      </c>
+      <c r="E25" s="1">
+        <v>598.25233644859804</v>
+      </c>
+      <c r="F25" s="1">
+        <v>82.746442276959996</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.7991747860274698E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.10453301510509E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>365.88785046728901</v>
+      </c>
+      <c r="J25" s="1">
+        <v>71.614013026324997</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.61682242990654201</v>
+      </c>
+      <c r="L25" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.56119900083263</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.12558575445173</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.57582298974635704</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.26625569335270999</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.26027253018816798</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.26015256820213001</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.21331920825698999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3027.5226429698</v>
+      </c>
+      <c r="D26" s="1">
+        <v>380.96371548405398</v>
+      </c>
+      <c r="E26" s="1">
+        <v>556.66355140186897</v>
+      </c>
+      <c r="F26" s="1">
+        <v>66.504295964847699</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.8465257284228803E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7.1600581751438399E-3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>301.86915887850398</v>
+      </c>
+      <c r="J26" s="1">
+        <v>56.920847504239802</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.56074766355140104</v>
+      </c>
+      <c r="L26" s="1">
+        <v>125.189250567751</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.2714148219441701</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.63742331288343501</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.80256031511570602</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.25766911816139998</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.24934651569194199</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.24743364356983499</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.24555072257682101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3260.8923223377901</v>
+      </c>
+      <c r="D27" s="1">
+        <v>583.28542930156596</v>
+      </c>
+      <c r="E27" s="1">
+        <v>598.82242990654197</v>
+      </c>
+      <c r="F27" s="1">
+        <v>118.762923592608</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5.00961894960903E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.1590943317478499E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>363.91588785046702</v>
+      </c>
+      <c r="J27" s="1">
+        <v>105.114367754003</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.56074766355140104</v>
+      </c>
+      <c r="L27" s="1">
+        <v>81.707015810276602</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.99606299212598404</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.0049455984174001</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.99605911330049202</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.30814728776806499</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.248938898640126</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.22787017154780101</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.215043642044005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3778.64373746513</v>
+      </c>
+      <c r="D28" s="1">
+        <v>901.00305097188595</v>
+      </c>
+      <c r="E28" s="1">
+        <v>715.32710280373794</v>
+      </c>
+      <c r="F28" s="1">
+        <v>132.09263074529801</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.0605136646745701E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.35168784536403E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>433.46728971962602</v>
+      </c>
+      <c r="J28" s="1">
+        <v>216.901085072754</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.579439252336448</v>
+      </c>
+      <c r="L28" s="1">
+        <v>138.853904282115</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.1214689265536699</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.72789581905414602</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.21280133000831</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.29229809744775398</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.24639920184112199</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.23232227183909299</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.22898042887202899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3742.4821390972402</v>
+      </c>
+      <c r="D29" s="1">
+        <v>698.66144647215697</v>
+      </c>
+      <c r="E29" s="1">
+        <v>745.82242990654197</v>
+      </c>
+      <c r="F29" s="1">
+        <v>115.56321352112499</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.3452260900014897E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>9.2409854877882405E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>355.08411214953202</v>
+      </c>
+      <c r="J29" s="1">
+        <v>117.785733034415</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.50467289719626096</v>
+      </c>
+      <c r="L29" s="1">
+        <v>106.624758220502</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.5176125244618299</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.99416342412451297</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.79566563467492202</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.28164541245164998</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.241614312575756</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.238942118639763</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.237798156332828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3284.5852636163499</v>
+      </c>
+      <c r="D30" s="1">
+        <v>871.339101846635</v>
+      </c>
+      <c r="E30" s="1">
+        <v>626.82242990654197</v>
+      </c>
+      <c r="F30" s="1">
+        <v>162.86797663953499</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.1761025092948297E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8.7045729453582993E-3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>292.28037383177502</v>
+      </c>
+      <c r="J30" s="1">
+        <v>141.962005868262</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.49532710280373798</v>
+      </c>
+      <c r="L30" s="1">
+        <v>93.803176403856995</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.9988662131519199</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2.0022701475595901</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.25863329538823698</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.251305964284116</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.24724112027884501</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.24281962004880001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3359.3827316417401</v>
+      </c>
+      <c r="D31" s="1">
+        <v>771.79037654362105</v>
+      </c>
+      <c r="E31" s="1">
+        <v>580.14018691588706</v>
+      </c>
+      <c r="F31" s="1">
+        <v>153.60195241884401</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5.29185083636112E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.19270992498734E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>303.69158878504601</v>
+      </c>
+      <c r="J31" s="1">
+        <v>108.644787860492</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.59813084112149495</v>
+      </c>
+      <c r="L31" s="1">
+        <v>135.13513513513499</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.14334763948497</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.165</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.75018754688672096</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.25549897223573598</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.252221109510259</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.25161984965421302</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.24066006859979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3840.7999792393298</v>
+      </c>
+      <c r="D32" s="1">
+        <v>551.896733300753</v>
+      </c>
+      <c r="E32" s="1">
+        <v>725.62616822429902</v>
+      </c>
+      <c r="F32" s="1">
+        <v>108.88015561701999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4.32876723291203E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.1804924584489101E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>368.29906542056</v>
+      </c>
+      <c r="J32" s="1">
+        <v>104.287185703375</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.63551401869158797</v>
+      </c>
+      <c r="L32" s="1">
+        <v>155.427631578947</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.0009407337723399</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.51955034213098705</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.9768115942028901</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.26866777809947501</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.25353903392286498</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.244953426348547</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.23283976162911099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4707.8000480710298</v>
+      </c>
+      <c r="D33" s="1">
+        <v>972.60429747336798</v>
+      </c>
+      <c r="E33" s="1">
+        <v>948.93457943925205</v>
+      </c>
+      <c r="F33" s="1">
+        <v>135.42320450454901</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4.8922364013995502E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.8423233171351999E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>426.09345794392499</v>
+      </c>
+      <c r="J33" s="1">
+        <v>196.46133636462201</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.62616822429906505</v>
+      </c>
+      <c r="L33" s="1">
+        <v>84.938366718027694</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1.0467741935483801</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.3182140326009899</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.75901022054868195</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.25336671659767401</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.25132859099891802</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.249731534983408</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.24557315741999799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2909.9427267056999</v>
+      </c>
+      <c r="D34" s="1">
+        <v>410.45314339405701</v>
+      </c>
+      <c r="E34" s="1">
+        <v>537.66355140186897</v>
+      </c>
+      <c r="F34" s="1">
+        <v>87.478162180143997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.8839840854824998E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7.9734102972182398E-3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>302.29906542056</v>
+      </c>
+      <c r="J34" s="1">
+        <v>59.7995428597022</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.52336448598130803</v>
+      </c>
+      <c r="L34" s="1">
+        <v>176.305970149253</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.45912873225648498</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2.1803628601920999</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.99574920297555702</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.26672559290936698</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.25709554806364499</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.239970486924969</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.23620837210201701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3697.8079698925399</v>
+      </c>
+      <c r="D35" s="1">
+        <v>633.97153309076998</v>
+      </c>
+      <c r="E35" s="1">
+        <v>722.971962616822</v>
+      </c>
+      <c r="F35" s="1">
+        <v>134.11150737414999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.0861404773275297E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.00695064442992E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>311.85981308411198</v>
+      </c>
+      <c r="J35" s="1">
+        <v>99.484131886252698</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.59813084112149495</v>
+      </c>
+      <c r="L35" s="1">
+        <v>138.970588235294</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.74984247006931304</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1.3347350714886399</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.59959657085224405</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.26882788993851098</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.25072984532598502</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.24373936715139799</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.23670289758410401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2787.4580932191502</v>
+      </c>
+      <c r="D36" s="1">
+        <v>445.310901839839</v>
+      </c>
+      <c r="E36" s="1">
+        <v>507.34579439252298</v>
+      </c>
+      <c r="F36" s="1">
+        <v>106.2932904929</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.06071388284064E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5.6785251937469701E-3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>265.57009345794302</v>
+      </c>
+      <c r="J36" s="1">
+        <v>58.428023002270699</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.52336448598130803</v>
+      </c>
+      <c r="L36" s="1">
+        <v>108.229712041884</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.75049115913555897</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.2354368932038799</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.74207188160676</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.27898956328878299</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.25200973527635201</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.24203200903586</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.226968692399003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4839.9487517604903</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1019.83555951771</v>
+      </c>
+      <c r="E37" s="1">
+        <v>979.44859813084099</v>
+      </c>
+      <c r="F37" s="1">
+        <v>143.132396304493</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.6782350124623097E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.1556567562347299E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>465.14953271028003</v>
+      </c>
+      <c r="J37" s="1">
+        <v>236.58223773153799</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.53271028037383095</v>
+      </c>
+      <c r="L37" s="1">
+        <v>85.332817337461293</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.99845440494590398</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.0010314595152101</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.99948453608247401</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.25606040624972398</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.25245880116442398</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.24772865059604801</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.243752141989802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3950.1074351594102</v>
+      </c>
+      <c r="D38" s="1">
+        <v>450.465627061921</v>
+      </c>
+      <c r="E38" s="1">
+        <v>776.11214953270996</v>
+      </c>
+      <c r="F38" s="1">
+        <v>98.966465301424194</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4.2226111006069197E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6.8155066378323701E-3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>418.25233644859799</v>
+      </c>
+      <c r="J38" s="1">
+        <v>85.397596045959304</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.56074766355140104</v>
+      </c>
+      <c r="L38" s="1">
+        <v>115.083507306889</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.99930458970792702</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1.00418994413407</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.997214484679665</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.26300085943386903</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.25102408034969098</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.247550097828382</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.23842496238805599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3039.8989066060299</v>
+      </c>
+      <c r="D39" s="1">
+        <v>730.64988571856895</v>
+      </c>
+      <c r="E39" s="1">
+        <v>508.130841121495</v>
+      </c>
+      <c r="F39" s="1">
+        <v>125.393219577913</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5.4872713446004501E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.7795289591942699E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>316.43925233644802</v>
+      </c>
+      <c r="J39" s="1">
+        <v>118.848617885412</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.68224299065420502</v>
+      </c>
+      <c r="L39" s="1">
+        <v>146.81892332789499</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.74938875305623398</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.75045871559633004</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.26467949822585402</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.26449969676587198</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.24467272577154001</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.226148079236732</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2579.0698806846099</v>
+      </c>
+      <c r="D40" s="1">
+        <v>288.597811551311</v>
+      </c>
+      <c r="E40" s="1">
+        <v>440.76635514018602</v>
+      </c>
+      <c r="F40" s="1">
+        <v>54.256155934681303</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4.2135002204449698E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7.8021151038038901E-3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>338.67289719626098</v>
+      </c>
+      <c r="J40" s="1">
+        <v>50.332683070388697</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.62616822429906505</v>
+      </c>
+      <c r="L40" s="1">
+        <v>196.17437722419899</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.98943661971830998</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.81297709923664097</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.99904671115347898</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.27927026929098597</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.248019072500654</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.24398892716155099</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.22872173104680699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3093.57961085333</v>
+      </c>
+      <c r="D41" s="1">
+        <v>535.49842894927099</v>
+      </c>
+      <c r="E41" s="1">
+        <v>552.30841121495303</v>
+      </c>
+      <c r="F41" s="1">
+        <v>127.94474648671699</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4.78604702003547E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.20211852851242E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>353.07476635514001</v>
+      </c>
+      <c r="J41" s="1">
+        <v>70.376384757157396</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.579439252336448</v>
+      </c>
+      <c r="L41" s="1">
+        <v>149.12082957619401</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.63772282921219003</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.9026258205689199</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.66040462427745605</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.25593499905292799</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.25456430127149299</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.249979508514514</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.23952119116106299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1497.30133889376</v>
+      </c>
+      <c r="D42" s="1">
+        <v>114.77650300813499</v>
+      </c>
+      <c r="E42" s="1">
+        <v>239.308411214953</v>
+      </c>
+      <c r="F42" s="1">
+        <v>21.202808496281001</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.5808176576307003E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.32374422180254E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>201.74766355140099</v>
+      </c>
+      <c r="J42" s="1">
+        <v>25.6187334559459</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.51401869158878499</v>
+      </c>
+      <c r="L42" s="1">
+        <v>147.393048128342</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1.49467140319715</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.985126859142607</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.27363373806033398</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.25483164779317602</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.25010961539853499</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.22142499874795299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2468.0952628700002</v>
+      </c>
+      <c r="D43" s="1">
+        <v>401.40121105700001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>475.53271028</v>
+      </c>
+      <c r="F43" s="1">
+        <v>97.749567272700006</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5.5892609776200003E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.4381053978800001E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>218.30841121500001</v>
+      </c>
+      <c r="J43" s="1">
+        <v>51.636111976899997</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.65420560747699996</v>
+      </c>
+      <c r="L43" s="1">
+        <v>125</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.0022727272700001</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1.0068649885600001</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.66514459665100001</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.29905446005300002</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.27852448835499999</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.21153629339400001</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.21088475819700001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4146.4097815499999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>261.04499945800001</v>
+      </c>
+      <c r="E44" s="1">
+        <v>703.37383177599997</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42.0421513816</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8.1158989216499999E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.3099629751200003E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>351.42990654200003</v>
+      </c>
+      <c r="J44" s="1">
+        <v>80.6382382046</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.68224299065399996</v>
+      </c>
+      <c r="L44" s="1">
+        <v>132.618283881</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1.16979362101</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.58862506902300005</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.92115971515799999</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.30438036132899998</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.271304418938</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.22070822745400001</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.203606992279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4025.4171786900001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1308.9238643199999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>813.85981308400005</v>
+      </c>
+      <c r="F45" s="1">
+        <v>239.702792945</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.110647448642</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6.1665474557E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>206.607476636</v>
+      </c>
+      <c r="J45" s="1">
+        <v>167.19532239899999</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.63551401869199997</v>
+      </c>
+      <c r="L45" s="1">
+        <v>99.984885126999998</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1.00060496068</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.99879154078499999</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.0079171741799999</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.28060613846900001</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.25033461423499997</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.24542351750999999</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0.22363572978599999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4903.3753667600004</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1766.97942582</v>
+      </c>
+      <c r="E46" s="1">
+        <v>959.41121495300001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>344.55573327399998</v>
+      </c>
+      <c r="G46" s="1">
+        <v>7.0104691981299996E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6.1939531381000001E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>393.76635513999997</v>
+      </c>
+      <c r="J46" s="1">
+        <v>218.38855792499999</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.83177570093499997</v>
+      </c>
+      <c r="L46" s="1">
+        <v>130.011792453</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1.00872323553</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.99057344854700002</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.0015735641200001</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.27249869239300001</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.25198897760200001</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.239407968852</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.23610436115200001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3953.6384103700002</v>
+      </c>
+      <c r="D47" s="1">
+        <v>881.287369281</v>
+      </c>
+      <c r="E47" s="1">
+        <v>819.83177570099997</v>
+      </c>
+      <c r="F47" s="1">
+        <v>174.45260106500001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>7.8150276452200004E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4.5005804443499997E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>303.62616822400003</v>
+      </c>
+      <c r="J47" s="1">
+        <v>164.13947359400001</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.78504672897200001</v>
+      </c>
+      <c r="L47" s="1">
+        <v>84.634083930399996</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.0005120327699999</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.99897698209700003</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.5178571428600001</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.26411207363</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.24906149638200001</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.24822053329400001</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.238605896693</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5031.2158743399996</v>
+      </c>
+      <c r="D48" s="1">
+        <v>804.32322209100005</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1123.9719626200001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>119.908022223</v>
+      </c>
+      <c r="G48" s="1">
+        <v>6.3296069028000002E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3.6757162765199997E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>215.457943925</v>
+      </c>
+      <c r="J48" s="1">
+        <v>97.974274744200002</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.65420560747699996</v>
+      </c>
+      <c r="L48" s="1">
+        <v>184.77653631300001</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.0718562874299999</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.93400447427300004</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.07194244604</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.26281261988600002</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.25894561593400001</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.24364104297399999</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0.234600721205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4054.57647989</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1198.20037166</v>
+      </c>
+      <c r="E49" s="1">
+        <v>824.16822429900003</v>
+      </c>
+      <c r="F49" s="1">
+        <v>231.20535380000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7.0772644525600004E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>4.0303602802899997E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>245.71962616799999</v>
+      </c>
+      <c r="J49" s="1">
+        <v>167.030569388</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.69158878504700005</v>
+      </c>
+      <c r="L49" s="1">
+        <v>126.91864927100001</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.00076804916</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.99846625766899999</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.66734902763600001</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.29245497813600002</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.27073323023200002</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.22047165826199999</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.21634013336899999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3444.6581981200002</v>
+      </c>
+      <c r="D50" s="1">
+        <v>894.51109738599996</v>
+      </c>
+      <c r="E50" s="1">
+        <v>819.99065420600004</v>
+      </c>
+      <c r="F50" s="1">
+        <v>272.397678477</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.13887377366100001</v>
+      </c>
+      <c r="H50" s="1">
+        <v>7.7094469324000006E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>114.261682243</v>
+      </c>
+      <c r="J50" s="1">
+        <v>59.492925276199998</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.72897196261700004</v>
+      </c>
+      <c r="L50" s="1">
+        <v>86.674528301899997</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.99947616553200003</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1.0010487677</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.99842931937199997</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.28704126119000001</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.26103339770900003</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.22604481225</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0.22588052885099999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3221.6261633700001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1373.9165237100001</v>
+      </c>
+      <c r="E51" s="1">
+        <v>647.11214953299998</v>
+      </c>
+      <c r="F51" s="1">
+        <v>288.76712886399997</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8.6501893177499997E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4.5481448924800001E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>197.635514019</v>
+      </c>
+      <c r="J51" s="1">
+        <v>179.57464761400001</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.70093457943899995</v>
+      </c>
+      <c r="L51" s="1">
+        <v>116.955445545</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.00070771408</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.99858657243799998</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.0021246458899999</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0.30195123114700001</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.27949382280000001</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.246039270625</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0.172515675428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3707.0752153799999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>599.32992591699997</v>
+      </c>
+      <c r="E52" s="1">
+        <v>777.17757009299999</v>
+      </c>
+      <c r="F52" s="1">
+        <v>102.40781704600001</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8.1077051428999999E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4.0303780845999997E-2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>224.598130841</v>
+      </c>
+      <c r="J52" s="1">
+        <v>117.849330373</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.65420560747699996</v>
+      </c>
+      <c r="L52" s="1">
+        <v>86.993687532899997</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1.00052631579</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1.49960536701</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.66614090431100004</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0.28865756133300002</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0.25591371386099998</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0.238689913074</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0.21673881173199999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>979.79210839200005</v>
+      </c>
+      <c r="D53" s="1">
+        <v>124.67528947</v>
+      </c>
+      <c r="E53" s="1">
+        <v>136.10280373800001</v>
+      </c>
+      <c r="F53" s="1">
+        <v>31.8192719418</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5.5330991474800001E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.30900554729E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>116.420560748</v>
+      </c>
+      <c r="J53" s="1">
+        <v>14.984750742899999</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.46728971962600002</v>
+      </c>
+      <c r="L53" s="1">
+        <v>136.78660049600001</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1.02370872142</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.95472918350799996</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.00732899023</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.28769293942399998</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.253314377604</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0.232343653191</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0.22664902978099999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3909.0870854700001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1092.9041458500001</v>
+      </c>
+      <c r="E54" s="1">
+        <v>837.12149532700005</v>
+      </c>
+      <c r="F54" s="1">
+        <v>228.36381492699999</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.114208014469</v>
+      </c>
+      <c r="H54" s="1">
+        <v>4.99521532997E-2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>130.42056074800001</v>
+      </c>
+      <c r="J54" s="1">
+        <v>77.373597537799995</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.62616822429899999</v>
+      </c>
+      <c r="L54" s="1">
+        <v>127.999226006</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1.49883990719</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.0015491866799999</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.29122797072599999</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0.25622480128300001</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0.229695407435</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0.222851820556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2215.8289495200002</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1028.57805581</v>
+      </c>
+      <c r="E55" s="1">
+        <v>476.92523364499999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>261.864511623</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.17344689076799999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>7.4552305289500007E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>98.233644859799995</v>
+      </c>
+      <c r="J55" s="1">
+        <v>88.989401809300006</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.66355140186899997</v>
+      </c>
+      <c r="L55" s="1">
+        <v>115.003477051</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1.0006958942199999</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.99861014593499997</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1.0098245614000001</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0.27115261806699997</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.25339624650800002</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0.250533684423</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.224917451002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4740.5837110599996</v>
+      </c>
+      <c r="D56" s="1">
+        <v>518.04274097200005</v>
+      </c>
+      <c r="E56" s="1">
+        <v>972.10280373800003</v>
+      </c>
+      <c r="F56" s="1">
+        <v>94.870687650700006</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4.0566883114000002E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.1582343158299998E-2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>273.70093457899998</v>
+      </c>
+      <c r="J56" s="1">
+        <v>76.481530963799997</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.71028037383200004</v>
+      </c>
+      <c r="L56" s="1">
+        <v>167.553191489</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1.08461538462</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.97744360902299998</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.47306910569100002</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.27195968790000002</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.25205520618299998</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.23830733679400001</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0.23767776912399999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3276.3168127399999</v>
+      </c>
+      <c r="D57" s="1">
+        <v>286.92485917900001</v>
+      </c>
+      <c r="E57" s="1">
+        <v>622.85046728999998</v>
+      </c>
+      <c r="F57" s="1">
+        <v>47.183040620699998</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4.5445646983999999E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.0111214336000001E-2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>298.22429906500003</v>
+      </c>
+      <c r="J57" s="1">
+        <v>62.970146970999998</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.59813084112100001</v>
+      </c>
+      <c r="L57" s="1">
+        <v>143.679409209</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1.0222024866799999</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.78576413119300004</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.3051001821499999</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.27766141750700002</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.24974326459000001</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.237290346948</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0.235304970955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2025.87077798</v>
+      </c>
+      <c r="D58" s="1">
+        <v>535.40349361799997</v>
+      </c>
+      <c r="E58" s="1">
+        <v>730.61682242999996</v>
+      </c>
+      <c r="F58" s="1">
+        <v>254.56790015999999</v>
+      </c>
+      <c r="G58" s="1">
+        <v>5.4114455696399999E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.1018249019E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>472.48598130800002</v>
+      </c>
+      <c r="J58" s="1">
+        <v>113.72966508099999</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.57943925233600002</v>
+      </c>
+      <c r="L58" s="1">
+        <v>129.80769230799999</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.733026467204</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.84042553191500002</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1.18171428571</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0.25985673256500003</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.25769015505800003</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.245515535619</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0.23693757675800001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4885.4926109400003</v>
+      </c>
+      <c r="D59" s="1">
+        <v>720.71579917600002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>981.320754717</v>
+      </c>
+      <c r="F59" s="1">
+        <v>108.24479134000001</v>
+      </c>
+      <c r="G59" s="1">
+        <v>7.1518228273600007E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3.8696251368700002E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>237.66037735800001</v>
+      </c>
+      <c r="J59" s="1">
+        <v>102.59922825</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.71698113207500003</v>
+      </c>
+      <c r="L59" s="1">
+        <v>125</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.99924471299100004</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1.0015128593</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1.00608828006</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.32560843619099999</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.24939975072600001</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0.23254747223700001</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0.19244434084500001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2599.4341958499999</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1368.37047781</v>
+      </c>
+      <c r="E60" s="1">
+        <v>514.88785046700002</v>
+      </c>
+      <c r="F60" s="1">
+        <v>261.885375764</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.12144320694999999</v>
+      </c>
+      <c r="H60" s="1">
+        <v>5.4655106799900002E-2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>143.28037383200001</v>
+      </c>
+      <c r="J60" s="1">
+        <v>118.390593399</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.55140186915900002</v>
+      </c>
+      <c r="L60" s="1">
+        <v>127.999226006</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1.5011618900100001</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0.66649457924599997</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0.27755283245700002</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0.25512577759400001</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0.23367801725000001</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0.23364337269900001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3335.2483260200001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>870.30690189300003</v>
+      </c>
+      <c r="E61" s="1">
+        <v>654.75700934600002</v>
+      </c>
+      <c r="F61" s="1">
+        <v>165.40970607</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8.4885646235900003E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5.7014485180599997E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>269.803738318</v>
+      </c>
+      <c r="J61" s="1">
+        <v>126.04096939999999</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.78504672897200001</v>
+      </c>
+      <c r="L61" s="1">
+        <v>130.011792453</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.99921445404599996</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1.0015735641200001</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0.66614255765200003</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0.28103731557900002</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.25175538874800002</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0.24804261915799999</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0.21916467651499999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3154.5195170100001</v>
+      </c>
+      <c r="D62" s="1">
+        <v>954.74158178300002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>654.28037383200001</v>
+      </c>
+      <c r="F62" s="1">
+        <v>222.34648361000001</v>
+      </c>
+      <c r="G62" s="1">
+        <v>8.30732654707E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2.8363692912299999E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>193.65420560699999</v>
+      </c>
+      <c r="J62" s="1">
+        <v>97.728414716800003</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.58878504672900001</v>
+      </c>
+      <c r="L62" s="1">
+        <v>127.999226006</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1.0007745933400001</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0.99845320958999995</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.66718266253900005</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0.48276060498599999</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.19793575180799999</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.192612426403</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0.126691216804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3393.3967075907299</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1269.14915574514</v>
+      </c>
+      <c r="E63" s="2">
+        <v>666.66355140186897</v>
+      </c>
+      <c r="F63" s="2">
+        <v>169.68524704293799</v>
+      </c>
+      <c r="G63" s="2">
+        <v>7.6170527337215604E-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3.4287258686373903E-2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>333.644859813084</v>
+      </c>
+      <c r="J63" s="2">
+        <v>240.13630289672</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.63551401869158797</v>
+      </c>
+      <c r="L63" s="2">
+        <v>126.91864927091299</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1.0007680491551401</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.998466257668711</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0.99012908124525401</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.29057622859627202</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0.25849721380504098</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0.23286552955021</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0.21806102804847499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2728.1567429256602</v>
+      </c>
+      <c r="D64" s="2">
+        <v>920.29813670358703</v>
+      </c>
+      <c r="E64" s="2">
+        <v>544.48598130841106</v>
+      </c>
+      <c r="F64" s="2">
+        <v>170.14267594377301</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8.6631293253528793E-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.9169563885277002E-2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>250.88785046728901</v>
+      </c>
+      <c r="J64" s="2">
+        <v>169.07087089472</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.63551401869158797</v>
+      </c>
+      <c r="L64" s="2">
+        <v>91.0154100165107</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1.00055066079295</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.99397920087575198</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1.0049504950495001</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.26800059371770202</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.26776562747721799</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0.24125606194444901</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0.222977716860629</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2868.0274027779001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>902.36234272310003</v>
+      </c>
+      <c r="E65" s="2">
+        <v>568.72897196261601</v>
+      </c>
+      <c r="F65" s="2">
+        <v>144.66781608599899</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8.1011877508717606E-2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.72374034406388E-2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>267.76635514018602</v>
+      </c>
+      <c r="J65" s="2">
+        <v>183.89211482839801</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.58878504672897103</v>
+      </c>
+      <c r="L65" s="2">
+        <v>85.025706940874002</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.99948612538540504</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.99743721168631405</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.99948770491803196</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.290594907663841</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0.27090942271385599</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0.22261524050547599</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0.21588042911682401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1946.4154181681299</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1232.2681894623399</v>
+      </c>
+      <c r="E66" s="2">
+        <v>375.73831775700899</v>
+      </c>
+      <c r="F66" s="2">
+        <v>246.196234187306</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.111217782549975</v>
+      </c>
+      <c r="H66" s="2">
+        <v>6.3525842193328894E-2</v>
+      </c>
+      <c r="I66" s="2">
+        <v>120.158878504672</v>
+      </c>
+      <c r="J66" s="2">
+        <v>138.09925656629201</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0.58878504672897103</v>
+      </c>
+      <c r="L66" s="2">
+        <v>81.626357354392894</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
+        <v>1</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2996.7195851747101</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2038.84145353134</v>
+      </c>
+      <c r="E67" s="2">
+        <v>549.90654205607404</v>
+      </c>
+      <c r="F67" s="2">
+        <v>375.39779605680201</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.10815955850957901</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5.2569422373132099E-2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>289.23364485981301</v>
+      </c>
+      <c r="J67" s="2">
+        <v>285.34231219660597</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0.68224299065420502</v>
+      </c>
+      <c r="L67" s="2">
+        <v>182.33186328555601</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.97109207708779399</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0.98627243928194197</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1.04525386313465</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.25317580675829099</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0.25122885851395399</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0.24874896226853299</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0.24684637245922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4153.8413476682399</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1551.7737920193199</v>
+      </c>
+      <c r="E68" s="2">
+        <v>810.59813084112102</v>
+      </c>
+      <c r="F68" s="2">
+        <v>241.587346477034</v>
+      </c>
+      <c r="G68" s="2">
+        <v>8.6525235922757501E-2</v>
+      </c>
+      <c r="H68" s="2">
+        <v>4.3165955129124703E-2</v>
+      </c>
+      <c r="I68" s="2">
+        <v>349.20560747663501</v>
+      </c>
+      <c r="J68" s="2">
+        <v>272.53814749079601</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0.710280373831775</v>
+      </c>
+      <c r="L68" s="2">
+        <v>92.491610738255005</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1.0044943820224701</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1.97997775305895</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1.00334821428571</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.299505313187446</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0.239769432276177</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0.2304392427087</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0.230286011827676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3148.8661124626901</v>
+      </c>
+      <c r="D69" s="2">
+        <v>929.34004084852097</v>
+      </c>
+      <c r="E69" s="2">
+        <v>618.72897196261601</v>
+      </c>
+      <c r="F69" s="2">
+        <v>170.05032625576101</v>
+      </c>
+      <c r="G69" s="2">
+        <v>7.3494169411806198E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.7260593504064599E-2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>269.15887850467197</v>
+      </c>
+      <c r="J69" s="2">
+        <v>121.511135563914</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.644859813084112</v>
+      </c>
+      <c r="L69" s="2">
+        <v>98.029045643153495</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.99940758293838805</v>
+      </c>
+      <c r="N69" s="2">
+        <v>1.0011862396204001</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1.12175648702594</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.29515694651886798</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0.262904327197096</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.226636226566266</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.21530249971776799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2652.6294957728801</v>
+      </c>
+      <c r="D70" s="2">
+        <v>970.17965040067497</v>
+      </c>
+      <c r="E70" s="2">
+        <v>497.93457943925199</v>
+      </c>
+      <c r="F70" s="2">
+        <v>166.862261796186</v>
+      </c>
+      <c r="G70" s="2">
+        <v>8.8415692634001605E-2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>3.5966990934757498E-2</v>
+      </c>
+      <c r="I70" s="2">
+        <v>275.86915887850398</v>
+      </c>
+      <c r="J70" s="2">
+        <v>127.77543707557101</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.579439252336448</v>
+      </c>
+      <c r="L70" s="2">
+        <v>90.467724288840202</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0.99945325314379396</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1.0010946907498599</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0.99836065573770405</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.27067299270168599</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0.26835972719342099</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0.237499586570138</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0.22346769353475199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3503.7956771109298</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1307.16029630309</v>
+      </c>
+      <c r="E71" s="2">
+        <v>662.11214953270996</v>
+      </c>
+      <c r="F71" s="2">
+        <v>230.659247282786</v>
+      </c>
+      <c r="G71" s="2">
+        <v>9.4405585148486196E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>4.3135100766863402E-2</v>
+      </c>
+      <c r="I71" s="2">
+        <v>299.88785046728901</v>
+      </c>
+      <c r="J71" s="2">
+        <v>155.274753597374</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0.69158878504672805</v>
+      </c>
+      <c r="L71" s="2">
+        <v>174.44620253164501</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.98749999999999905</v>
+      </c>
+      <c r="N71" s="2">
+        <v>1.00208768267223</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1.0094836670179099</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.25199816265033098</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.25139987573239098</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.24903233434028199</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.247569627276993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3822.2072343426998</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1202.2870092620799</v>
+      </c>
+      <c r="E72" s="2">
+        <v>789.04672897196201</v>
+      </c>
+      <c r="F72" s="2">
+        <v>209.226764391887</v>
+      </c>
+      <c r="G72" s="2">
+        <v>6.5966724939798604E-2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2.3171500098774798E-2</v>
+      </c>
+      <c r="I72" s="2">
+        <v>318.76635514018602</v>
+      </c>
+      <c r="J72" s="2">
+        <v>190.85584810498699</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0.56074766355140104</v>
+      </c>
+      <c r="L72" s="2">
+        <v>96.654003506721196</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.99883245767659001</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.98845931909982598</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1.0069726902963301</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.27020480130012697</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0.25407766377730301</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.23803729204863799</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0.23768024287393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2948.45505409013</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1143.6661618595599</v>
+      </c>
+      <c r="E73" s="2">
+        <v>620.20560747663501</v>
+      </c>
+      <c r="F73" s="2">
+        <v>222.66645514969201</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.10177716500478</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3.3250310661350597E-2</v>
+      </c>
+      <c r="I73" s="2">
+        <v>202.14953271028</v>
+      </c>
+      <c r="J73" s="2">
+        <v>195.55235949361401</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.59813084112149495</v>
+      </c>
+      <c r="L73" s="2">
+        <v>87.732095490716105</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.99946977730646802</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1.00106157112526</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1.0064102564102499</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.27003212025442702</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0.24813117376498101</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.24221860846496601</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.23961809751562399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2918.4919526988001</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1022.81145537727</v>
+      </c>
+      <c r="E74" s="2">
+        <v>514.85981308411203</v>
+      </c>
+      <c r="F74" s="2">
+        <v>170.55398731961401</v>
+      </c>
+      <c r="G74" s="2">
+        <v>7.3966472786521298E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2.4405526345474701E-2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>327.39252336448499</v>
+      </c>
+      <c r="J74" s="2">
+        <v>198.36070029301499</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.62616822429906505</v>
+      </c>
+      <c r="L74" s="2">
+        <v>93.326749435665903</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1.0178058587018901</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1.00288018433179</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0.97692740574001102</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.27012292225581003</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0.248437798831358</v>
+      </c>
+      <c r="R74" s="2">
+        <v>0.243754890038826</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0.237684388874004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1908.54681550238</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1010.02797750132</v>
+      </c>
+      <c r="E75" s="2">
+        <v>378.76635514018602</v>
+      </c>
+      <c r="F75" s="2">
+        <v>213.91497915591501</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.135205108423117</v>
+      </c>
+      <c r="H75" s="2">
+        <v>7.5227249330001106E-2</v>
+      </c>
+      <c r="I75" s="2">
+        <v>100.046728971962</v>
+      </c>
+      <c r="J75" s="2">
+        <v>128.371713713823</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0.579439252336448</v>
+      </c>
+      <c r="L75" s="2">
+        <v>183.954393770856</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1.0011135857461</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1.0871670702179099</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0.43936170212765902</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.29350833189514602</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0.26044665830027303</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0.23285342340854301</v>
+      </c>
+      <c r="S75" s="2">
+        <v>0.213191586396035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2480.3635958479199</v>
+      </c>
+      <c r="D76" s="2">
+        <v>943.95361299730098</v>
+      </c>
+      <c r="E76" s="2">
+        <v>525.50467289719597</v>
+      </c>
+      <c r="F76" s="2">
+        <v>171.43181385202001</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.10638729595132</v>
+      </c>
+      <c r="H76" s="2">
+        <v>4.33271005824164E-2</v>
+      </c>
+      <c r="I76" s="2">
+        <v>181.62616822429899</v>
+      </c>
+      <c r="J76" s="2">
+        <v>120.51808127146199</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0.65420560747663503</v>
+      </c>
+      <c r="L76" s="2">
+        <v>94.016486640136407</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.99943181818181803</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1.0011376564277501</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1.00514579759862</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.26857606126552702</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0.247574298015901</v>
+      </c>
+      <c r="R76" s="2">
+        <v>0.24606239468194899</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0.23778724603662099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4286.5258322661502</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1703.41581828583</v>
+      </c>
+      <c r="E77" s="2">
+        <v>796.37383177569995</v>
+      </c>
+      <c r="F77" s="2">
+        <v>244.145257948573</v>
+      </c>
+      <c r="G77" s="2">
+        <v>8.4218376850145202E-2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>4.0141397108421802E-2</v>
+      </c>
+      <c r="I77" s="2">
+        <v>369.92523364485902</v>
+      </c>
+      <c r="J77" s="2">
+        <v>291.55563105311001</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.644859813084112</v>
+      </c>
+      <c r="L77" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1.0005717552887301</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1.0005685048322901</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.25879492869299398</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0.25088221368198699</v>
+      </c>
+      <c r="R77" s="2">
+        <v>0.24766838006158201</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0.242654477563434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3432.1888072372299</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1081.9973035209</v>
+      </c>
+      <c r="E78" s="2">
+        <v>607.00934579439195</v>
+      </c>
+      <c r="F78" s="2">
+        <v>228.78404686422499</v>
+      </c>
+      <c r="G78" s="2">
+        <v>6.8856947929343507E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.8590994777449799E-2</v>
+      </c>
+      <c r="I78" s="2">
+        <v>371.83177570093397</v>
+      </c>
+      <c r="J78" s="2">
+        <v>183.99545331548799</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0.60747663551401798</v>
+      </c>
+      <c r="L78" s="2">
+        <v>133.15217391304299</v>
+      </c>
+      <c r="M78" s="2">
+        <v>1.4856459330143501</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0.68412438625204497</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.81793842034805797</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.26092442821753897</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0.25713912061902999</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0.24925215046205601</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0.232684300701373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2963.1602478165701</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1223.19273373038</v>
+      </c>
+      <c r="E79" s="2">
+        <v>581.46728971962602</v>
+      </c>
+      <c r="F79" s="2">
+        <v>194.85553324599101</v>
+      </c>
+      <c r="G79" s="2">
+        <v>9.1661145198330199E-2</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3.8836707515670997E-2</v>
+      </c>
+      <c r="I79" s="2">
+        <v>221.04672897196201</v>
+      </c>
+      <c r="J79" s="2">
+        <v>190.238039926547</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0.710280373831775</v>
+      </c>
+      <c r="L79" s="2">
+        <v>186.23310810810801</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0.99107142857142805</v>
+      </c>
+      <c r="N79" s="2">
+        <v>1.00111731843575</v>
+      </c>
+      <c r="O79" s="2">
+        <v>1.00111856823266</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0.25822457859144299</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0.25166869643349998</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0.247106406393232</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0.243000318581822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3298.3787001861501</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1301.46041317661</v>
+      </c>
+      <c r="E80" s="2">
+        <v>657.44859813084099</v>
+      </c>
+      <c r="F80" s="2">
+        <v>195.55324028958</v>
+      </c>
+      <c r="G80" s="2">
+        <v>7.8325853678511997E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>3.1811735321421002E-2</v>
+      </c>
+      <c r="I80" s="2">
+        <v>231.36448598130801</v>
+      </c>
+      <c r="J80" s="2">
+        <v>199.20343204092899</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0.65420560747663503</v>
+      </c>
+      <c r="L80" s="2">
+        <v>84.288990825688003</v>
+      </c>
+      <c r="M80" s="2">
+        <v>1.84919886899151</v>
+      </c>
+      <c r="N80" s="2">
+        <v>1.06206206206206</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0.99008919722497502</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.262350418208813</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0.249647867124588</v>
+      </c>
+      <c r="R80" s="2">
+        <v>0.24774496663717899</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0.24025674802941799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3309.2904984876</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1014.93990675014</v>
+      </c>
+      <c r="E81" s="2">
+        <v>686.45794392523305</v>
+      </c>
+      <c r="F81" s="2">
+        <v>151.030434537281</v>
+      </c>
+      <c r="G81" s="2">
+        <v>8.8273095129558804E-2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>2.97358635678397E-2</v>
+      </c>
+      <c r="I81" s="2">
+        <v>220.39252336448499</v>
+      </c>
+      <c r="J81" s="2">
+        <v>185.81453707148501</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.63551401869158797</v>
+      </c>
+      <c r="L81" s="2">
+        <v>106.55605670103</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1.00064474532559</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0.99871216999356005</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0.99807197943444703</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.25389450641213601</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0.25252054917231098</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0.24854982557340899</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0.24503511884214299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2522.5415032507499</v>
+      </c>
+      <c r="D82" s="2">
+        <v>864.10487316162903</v>
+      </c>
+      <c r="E82" s="2">
+        <v>541.14953271028003</v>
+      </c>
+      <c r="F82" s="2">
+        <v>155.443039045278</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.10806543208217401</v>
+      </c>
+      <c r="H82" s="2">
+        <v>3.7598484603909701E-2</v>
+      </c>
+      <c r="I82" s="2">
+        <v>212.663551401869</v>
+      </c>
+      <c r="J82" s="2">
+        <v>155.88384987806799</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0.60747663551401798</v>
+      </c>
+      <c r="L82" s="2">
+        <v>94.230769230769198</v>
+      </c>
+      <c r="M82" s="2">
+        <v>0.99943052391799503</v>
+      </c>
+      <c r="N82" s="2">
+        <v>1.0011402508551801</v>
+      </c>
+      <c r="O82" s="2">
+        <v>1.0115340253748499</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.26983253964545101</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0.26148413775280099</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0.24006555840788699</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0.22861776419385799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1855,1251 +7776,2644 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2">
-        <v>2468.0952628700002</v>
-      </c>
-      <c r="D2">
-        <v>401.40121105700001</v>
-      </c>
-      <c r="E2">
-        <v>475.53271028</v>
-      </c>
-      <c r="F2">
-        <v>97.749567272700006</v>
-      </c>
-      <c r="G2">
-        <v>5.5892609776200003E-2</v>
-      </c>
-      <c r="H2">
-        <v>1.4381053978800001E-2</v>
-      </c>
-      <c r="I2">
-        <v>218.30841121500001</v>
-      </c>
-      <c r="J2">
-        <v>51.636111976899997</v>
-      </c>
-      <c r="K2">
-        <v>0.65420560747699996</v>
-      </c>
-      <c r="L2">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="s">
         <v>125</v>
       </c>
-      <c r="M2">
-        <v>1.0022727272700001</v>
-      </c>
-      <c r="N2">
-        <v>1.0068649885600001</v>
-      </c>
-      <c r="O2">
-        <v>0.66514459665100001</v>
-      </c>
-      <c r="P2">
-        <v>0.29905446005300002</v>
-      </c>
-      <c r="Q2">
-        <v>0.27852448835499999</v>
-      </c>
-      <c r="R2">
-        <v>0.21153629339400001</v>
-      </c>
-      <c r="S2">
-        <v>0.21088475819700001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>4146.4097815499999</v>
-      </c>
-      <c r="D3">
-        <v>261.04499945800001</v>
-      </c>
-      <c r="E3">
-        <v>703.37383177599997</v>
-      </c>
-      <c r="F3">
-        <v>42.0421513816</v>
-      </c>
-      <c r="G3">
-        <v>8.1158989216499999E-2</v>
-      </c>
-      <c r="H3">
-        <v>3.3099629751200003E-2</v>
-      </c>
-      <c r="I3">
-        <v>351.42990654200003</v>
-      </c>
-      <c r="J3">
-        <v>80.6382382046</v>
-      </c>
-      <c r="K3">
-        <v>0.68224299065399996</v>
-      </c>
-      <c r="L3">
-        <v>132.618283881</v>
-      </c>
-      <c r="M3">
-        <v>1.16979362101</v>
-      </c>
-      <c r="N3">
-        <v>0.58862506902300005</v>
-      </c>
-      <c r="O3">
-        <v>0.92115971515799999</v>
-      </c>
-      <c r="P3">
-        <v>0.30438036132899998</v>
-      </c>
-      <c r="Q3">
-        <v>0.271304418938</v>
-      </c>
-      <c r="R3">
-        <v>0.22070822745400001</v>
-      </c>
-      <c r="S3">
-        <v>0.203606992279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>4025.4171786900001</v>
-      </c>
-      <c r="D4">
-        <v>1308.9238643199999</v>
-      </c>
-      <c r="E4">
-        <v>813.85981308400005</v>
-      </c>
-      <c r="F4">
-        <v>239.702792945</v>
-      </c>
-      <c r="G4">
-        <v>0.110647448642</v>
-      </c>
-      <c r="H4">
-        <v>6.1665474557E-2</v>
-      </c>
-      <c r="I4">
-        <v>206.607476636</v>
-      </c>
-      <c r="J4">
-        <v>167.19532239899999</v>
-      </c>
-      <c r="K4">
-        <v>0.63551401869199997</v>
-      </c>
-      <c r="L4">
-        <v>99.984885126999998</v>
-      </c>
-      <c r="M4">
-        <v>1.00060496068</v>
-      </c>
-      <c r="N4">
-        <v>0.99879154078499999</v>
-      </c>
-      <c r="O4">
-        <v>1.0079171741799999</v>
-      </c>
-      <c r="P4">
-        <v>0.28060613846900001</v>
-      </c>
-      <c r="Q4">
-        <v>0.25033461423499997</v>
-      </c>
-      <c r="R4">
-        <v>0.24542351750999999</v>
-      </c>
-      <c r="S4">
-        <v>0.22363572978599999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>4903.3753667600004</v>
-      </c>
-      <c r="D5">
-        <v>1766.97942582</v>
-      </c>
-      <c r="E5">
-        <v>959.41121495300001</v>
-      </c>
-      <c r="F5">
-        <v>344.55573327399998</v>
-      </c>
-      <c r="G5">
-        <v>7.0104691981299996E-2</v>
-      </c>
-      <c r="H5">
-        <v>6.1939531381000001E-2</v>
-      </c>
-      <c r="I5">
-        <v>393.76635513999997</v>
-      </c>
-      <c r="J5">
-        <v>218.38855792499999</v>
-      </c>
-      <c r="K5">
-        <v>0.83177570093499997</v>
-      </c>
-      <c r="L5">
-        <v>130.011792453</v>
-      </c>
-      <c r="M5">
-        <v>1.00872323553</v>
-      </c>
-      <c r="N5">
-        <v>0.99057344854700002</v>
-      </c>
-      <c r="O5">
-        <v>1.0015735641200001</v>
-      </c>
-      <c r="P5">
-        <v>0.27249869239300001</v>
-      </c>
-      <c r="Q5">
-        <v>0.25198897760200001</v>
-      </c>
-      <c r="R5">
-        <v>0.239407968852</v>
-      </c>
-      <c r="S5">
-        <v>0.23610436115200001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>3953.6384103700002</v>
-      </c>
-      <c r="D6">
-        <v>881.287369281</v>
-      </c>
-      <c r="E6">
-        <v>819.83177570099997</v>
-      </c>
-      <c r="F6">
-        <v>174.45260106500001</v>
-      </c>
-      <c r="G6">
-        <v>7.8150276452200004E-2</v>
-      </c>
-      <c r="H6">
-        <v>4.5005804443499997E-2</v>
-      </c>
-      <c r="I6">
-        <v>303.62616822400003</v>
-      </c>
-      <c r="J6">
-        <v>164.13947359400001</v>
-      </c>
-      <c r="K6">
-        <v>0.78504672897200001</v>
-      </c>
-      <c r="L6">
-        <v>84.634083930399996</v>
-      </c>
-      <c r="M6">
-        <v>1.0005120327699999</v>
-      </c>
-      <c r="N6">
-        <v>0.99897698209700003</v>
-      </c>
-      <c r="O6">
-        <v>1.5178571428600001</v>
-      </c>
-      <c r="P6">
-        <v>0.26411207363</v>
-      </c>
-      <c r="Q6">
-        <v>0.24906149638200001</v>
-      </c>
-      <c r="R6">
-        <v>0.24822053329400001</v>
-      </c>
-      <c r="S6">
-        <v>0.238605896693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>5031.2158743399996</v>
-      </c>
-      <c r="D7">
-        <v>804.32322209100005</v>
-      </c>
-      <c r="E7">
-        <v>1123.9719626200001</v>
-      </c>
-      <c r="F7">
-        <v>119.908022223</v>
-      </c>
-      <c r="G7">
-        <v>6.3296069028000002E-2</v>
-      </c>
-      <c r="H7">
-        <v>3.6757162765199997E-2</v>
-      </c>
-      <c r="I7">
-        <v>215.457943925</v>
-      </c>
-      <c r="J7">
-        <v>97.974274744200002</v>
-      </c>
-      <c r="K7">
-        <v>0.65420560747699996</v>
-      </c>
-      <c r="L7">
-        <v>184.77653631300001</v>
-      </c>
-      <c r="M7">
-        <v>1.0718562874299999</v>
-      </c>
-      <c r="N7">
-        <v>0.93400447427300004</v>
-      </c>
-      <c r="O7">
-        <v>1.07194244604</v>
-      </c>
-      <c r="P7">
-        <v>0.26281261988600002</v>
-      </c>
-      <c r="Q7">
-        <v>0.25894561593400001</v>
-      </c>
-      <c r="R7">
-        <v>0.24364104297399999</v>
-      </c>
-      <c r="S7">
-        <v>0.234600721205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8">
-        <v>4054.57647989</v>
-      </c>
-      <c r="D8">
-        <v>1198.20037166</v>
-      </c>
-      <c r="E8">
-        <v>824.16822429900003</v>
-      </c>
-      <c r="F8">
-        <v>231.20535380000001</v>
-      </c>
-      <c r="G8">
-        <v>7.0772644525600004E-2</v>
-      </c>
-      <c r="H8">
-        <v>4.0303602802899997E-2</v>
-      </c>
-      <c r="I8">
-        <v>245.71962616799999</v>
-      </c>
-      <c r="J8">
-        <v>167.030569388</v>
-      </c>
-      <c r="K8">
-        <v>0.69158878504700005</v>
-      </c>
-      <c r="L8">
-        <v>126.91864927100001</v>
-      </c>
-      <c r="M8">
-        <v>1.00076804916</v>
-      </c>
-      <c r="N8">
-        <v>0.99846625766899999</v>
-      </c>
-      <c r="O8">
-        <v>0.66734902763600001</v>
-      </c>
-      <c r="P8">
-        <v>0.29245497813600002</v>
-      </c>
-      <c r="Q8">
-        <v>0.27073323023200002</v>
-      </c>
-      <c r="R8">
-        <v>0.22047165826199999</v>
-      </c>
-      <c r="S8">
-        <v>0.21634013336899999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>3444.6581981200002</v>
-      </c>
-      <c r="D9">
-        <v>894.51109738599996</v>
-      </c>
-      <c r="E9">
-        <v>819.99065420600004</v>
-      </c>
-      <c r="F9">
-        <v>272.397678477</v>
-      </c>
-      <c r="G9">
-        <v>0.13887377366100001</v>
-      </c>
-      <c r="H9">
-        <v>7.7094469324000006E-2</v>
-      </c>
-      <c r="I9">
-        <v>114.261682243</v>
-      </c>
-      <c r="J9">
-        <v>59.492925276199998</v>
-      </c>
-      <c r="K9">
-        <v>0.72897196261700004</v>
-      </c>
-      <c r="L9">
-        <v>86.674528301899997</v>
-      </c>
-      <c r="M9">
-        <v>0.99947616553200003</v>
-      </c>
-      <c r="N9">
-        <v>1.0010487677</v>
-      </c>
-      <c r="O9">
-        <v>0.99842931937199997</v>
-      </c>
-      <c r="P9">
-        <v>0.28704126119000001</v>
-      </c>
-      <c r="Q9">
-        <v>0.26103339770900003</v>
-      </c>
-      <c r="R9">
-        <v>0.22604481225</v>
-      </c>
-      <c r="S9">
-        <v>0.22588052885099999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>3221.6261633700001</v>
-      </c>
-      <c r="D10">
-        <v>1373.9165237100001</v>
-      </c>
-      <c r="E10">
-        <v>647.11214953299998</v>
-      </c>
-      <c r="F10">
-        <v>288.76712886399997</v>
-      </c>
-      <c r="G10">
-        <v>8.6501893177499997E-2</v>
-      </c>
-      <c r="H10">
-        <v>4.5481448924800001E-2</v>
-      </c>
-      <c r="I10">
-        <v>197.635514019</v>
-      </c>
-      <c r="J10">
-        <v>179.57464761400001</v>
-      </c>
-      <c r="K10">
-        <v>0.70093457943899995</v>
-      </c>
-      <c r="L10">
-        <v>116.955445545</v>
-      </c>
-      <c r="M10">
-        <v>1.00070771408</v>
-      </c>
-      <c r="N10">
-        <v>0.99858657243799998</v>
-      </c>
-      <c r="O10">
-        <v>1.0021246458899999</v>
-      </c>
-      <c r="P10">
-        <v>0.30195123114700001</v>
-      </c>
-      <c r="Q10">
-        <v>0.27949382280000001</v>
-      </c>
-      <c r="R10">
-        <v>0.246039270625</v>
-      </c>
-      <c r="S10">
-        <v>0.172515675428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>208</v>
+      </c>
+      <c r="R10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>3707.0752153799999</v>
-      </c>
-      <c r="D11">
-        <v>599.32992591699997</v>
-      </c>
-      <c r="E11">
-        <v>777.17757009299999</v>
-      </c>
-      <c r="F11">
-        <v>102.40781704600001</v>
-      </c>
-      <c r="G11">
-        <v>8.1077051428999999E-2</v>
-      </c>
-      <c r="H11">
-        <v>4.0303780845999997E-2</v>
-      </c>
-      <c r="I11">
-        <v>224.598130841</v>
-      </c>
-      <c r="J11">
-        <v>117.849330373</v>
-      </c>
-      <c r="K11">
-        <v>0.65420560747699996</v>
-      </c>
-      <c r="L11">
-        <v>86.993687532899997</v>
-      </c>
-      <c r="M11">
-        <v>1.00052631579</v>
-      </c>
-      <c r="N11">
-        <v>1.49960536701</v>
-      </c>
-      <c r="O11">
-        <v>0.66614090431100004</v>
-      </c>
-      <c r="P11">
-        <v>0.28865756133300002</v>
-      </c>
-      <c r="Q11">
-        <v>0.25591371386099998</v>
-      </c>
-      <c r="R11">
-        <v>0.238689913074</v>
-      </c>
-      <c r="S11">
-        <v>0.21673881173199999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>224</v>
+      </c>
+      <c r="R11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>979.79210839200005</v>
-      </c>
-      <c r="D12">
-        <v>124.67528947</v>
-      </c>
-      <c r="E12">
-        <v>136.10280373800001</v>
-      </c>
-      <c r="F12">
-        <v>31.8192719418</v>
-      </c>
-      <c r="G12">
-        <v>5.5330991474800001E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.30900554729E-2</v>
-      </c>
-      <c r="I12">
-        <v>116.420560748</v>
-      </c>
-      <c r="J12">
-        <v>14.984750742899999</v>
-      </c>
-      <c r="K12">
-        <v>0.46728971962600002</v>
-      </c>
-      <c r="L12">
-        <v>136.78660049600001</v>
-      </c>
-      <c r="M12">
-        <v>1.02370872142</v>
-      </c>
-      <c r="N12">
-        <v>0.95472918350799996</v>
-      </c>
-      <c r="O12">
-        <v>1.00732899023</v>
-      </c>
-      <c r="P12">
-        <v>0.28769293942399998</v>
-      </c>
-      <c r="Q12">
-        <v>0.253314377604</v>
-      </c>
-      <c r="R12">
-        <v>0.232343653191</v>
-      </c>
-      <c r="S12">
-        <v>0.22664902978099999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O12" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>241</v>
+      </c>
+      <c r="R12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13">
-        <v>3909.0870854700001</v>
-      </c>
-      <c r="D13">
-        <v>1092.9041458500001</v>
-      </c>
-      <c r="E13">
-        <v>837.12149532700005</v>
-      </c>
-      <c r="F13">
-        <v>228.36381492699999</v>
-      </c>
-      <c r="G13">
-        <v>0.114208014469</v>
-      </c>
-      <c r="H13">
-        <v>4.99521532997E-2</v>
-      </c>
-      <c r="I13">
-        <v>130.42056074800001</v>
-      </c>
-      <c r="J13">
-        <v>77.373597537799995</v>
-      </c>
-      <c r="K13">
-        <v>0.62616822429899999</v>
-      </c>
-      <c r="L13">
-        <v>127.999226006</v>
-      </c>
-      <c r="M13">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="N13">
-        <v>1.49883990719</v>
-      </c>
-      <c r="O13">
-        <v>1.0015491866799999</v>
-      </c>
-      <c r="P13">
-        <v>0.29122797072599999</v>
-      </c>
-      <c r="Q13">
-        <v>0.25622480128300001</v>
-      </c>
-      <c r="R13">
-        <v>0.229695407435</v>
-      </c>
-      <c r="S13">
-        <v>0.222851820556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" t="s">
+        <v>253</v>
+      </c>
+      <c r="M13" t="s">
+        <v>254</v>
+      </c>
+      <c r="N13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O13" t="s">
+        <v>256</v>
+      </c>
+      <c r="P13" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>258</v>
+      </c>
+      <c r="R13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>2215.8289495200002</v>
-      </c>
-      <c r="D14">
-        <v>1028.57805581</v>
-      </c>
-      <c r="E14">
-        <v>476.92523364499999</v>
-      </c>
-      <c r="F14">
-        <v>261.864511623</v>
-      </c>
-      <c r="G14">
-        <v>0.17344689076799999</v>
-      </c>
-      <c r="H14">
-        <v>7.4552305289500007E-2</v>
-      </c>
-      <c r="I14">
-        <v>98.233644859799995</v>
-      </c>
-      <c r="J14">
-        <v>88.989401809300006</v>
-      </c>
-      <c r="K14">
-        <v>0.66355140186899997</v>
-      </c>
-      <c r="L14">
-        <v>115.003477051</v>
-      </c>
-      <c r="M14">
-        <v>1.0006958942199999</v>
-      </c>
-      <c r="N14">
-        <v>0.99861014593499997</v>
-      </c>
-      <c r="O14">
-        <v>1.0098245614000001</v>
-      </c>
-      <c r="P14">
-        <v>0.27115261806699997</v>
-      </c>
-      <c r="Q14">
-        <v>0.25339624650800002</v>
-      </c>
-      <c r="R14">
-        <v>0.250533684423</v>
-      </c>
-      <c r="S14">
-        <v>0.224917451002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" t="s">
+        <v>270</v>
+      </c>
+      <c r="M14" t="s">
+        <v>271</v>
+      </c>
+      <c r="N14" t="s">
+        <v>272</v>
+      </c>
+      <c r="O14" t="s">
+        <v>273</v>
+      </c>
+      <c r="P14" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>4740.5837110599996</v>
-      </c>
-      <c r="D15">
-        <v>518.04274097200005</v>
-      </c>
-      <c r="E15">
-        <v>972.10280373800003</v>
-      </c>
-      <c r="F15">
-        <v>94.870687650700006</v>
-      </c>
-      <c r="G15">
-        <v>4.0566883114000002E-2</v>
-      </c>
-      <c r="H15">
-        <v>2.1582343158299998E-2</v>
-      </c>
-      <c r="I15">
-        <v>273.70093457899998</v>
-      </c>
-      <c r="J15">
-        <v>76.481530963799997</v>
-      </c>
-      <c r="K15">
-        <v>0.71028037383200004</v>
-      </c>
-      <c r="L15">
-        <v>167.553191489</v>
-      </c>
-      <c r="M15">
-        <v>1.08461538462</v>
-      </c>
-      <c r="N15">
-        <v>0.97744360902299998</v>
-      </c>
-      <c r="O15">
-        <v>0.47306910569100002</v>
-      </c>
-      <c r="P15">
-        <v>0.27195968790000002</v>
-      </c>
-      <c r="Q15">
-        <v>0.25205520618299998</v>
-      </c>
-      <c r="R15">
-        <v>0.23830733679400001</v>
-      </c>
-      <c r="S15">
-        <v>0.23767776912399999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M15" t="s">
+        <v>287</v>
+      </c>
+      <c r="N15" t="s">
+        <v>288</v>
+      </c>
+      <c r="O15" t="s">
+        <v>289</v>
+      </c>
+      <c r="P15" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>291</v>
+      </c>
+      <c r="R15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16">
-        <v>3276.3168127399999</v>
-      </c>
-      <c r="D16">
-        <v>286.92485917900001</v>
-      </c>
-      <c r="E16">
-        <v>622.85046728999998</v>
-      </c>
-      <c r="F16">
-        <v>47.183040620699998</v>
-      </c>
-      <c r="G16">
-        <v>4.5445646983999999E-2</v>
-      </c>
-      <c r="H16">
-        <v>1.0111214336000001E-2</v>
-      </c>
-      <c r="I16">
-        <v>298.22429906500003</v>
-      </c>
-      <c r="J16">
-        <v>62.970146970999998</v>
-      </c>
-      <c r="K16">
-        <v>0.59813084112100001</v>
-      </c>
-      <c r="L16">
-        <v>143.679409209</v>
-      </c>
-      <c r="M16">
-        <v>1.0222024866799999</v>
-      </c>
-      <c r="N16">
-        <v>0.78576413119300004</v>
-      </c>
-      <c r="O16">
-        <v>1.3051001821499999</v>
-      </c>
-      <c r="P16">
-        <v>0.27766141750700002</v>
-      </c>
-      <c r="Q16">
-        <v>0.24974326459000001</v>
-      </c>
-      <c r="R16">
-        <v>0.237290346948</v>
-      </c>
-      <c r="S16">
-        <v>0.235304970955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>301</v>
+      </c>
+      <c r="L16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N16" t="s">
+        <v>304</v>
+      </c>
+      <c r="O16" t="s">
+        <v>305</v>
+      </c>
+      <c r="P16" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>307</v>
+      </c>
+      <c r="R16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17">
-        <v>2025.87077798</v>
-      </c>
-      <c r="D17">
-        <v>535.40349361799997</v>
-      </c>
-      <c r="E17">
-        <v>730.61682242999996</v>
-      </c>
-      <c r="F17">
-        <v>254.56790015999999</v>
-      </c>
-      <c r="G17">
-        <v>5.4114455696399999E-2</v>
-      </c>
-      <c r="H17">
-        <v>1.1018249019E-2</v>
-      </c>
-      <c r="I17">
-        <v>472.48598130800002</v>
-      </c>
-      <c r="J17">
-        <v>113.72966508099999</v>
-      </c>
-      <c r="K17">
-        <v>0.57943925233600002</v>
-      </c>
-      <c r="L17">
-        <v>129.80769230799999</v>
-      </c>
-      <c r="M17">
-        <v>0.733026467204</v>
-      </c>
-      <c r="N17">
-        <v>0.84042553191500002</v>
-      </c>
-      <c r="O17">
-        <v>1.18171428571</v>
-      </c>
-      <c r="P17">
-        <v>0.25985673256500003</v>
-      </c>
-      <c r="Q17">
-        <v>0.25769015505800003</v>
-      </c>
-      <c r="R17">
-        <v>0.245515535619</v>
-      </c>
-      <c r="S17">
-        <v>0.23693757675800001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" t="s">
+        <v>314</v>
+      </c>
+      <c r="H17" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" t="s">
+        <v>318</v>
+      </c>
+      <c r="M17" t="s">
+        <v>319</v>
+      </c>
+      <c r="N17" t="s">
+        <v>320</v>
+      </c>
+      <c r="O17" t="s">
+        <v>321</v>
+      </c>
+      <c r="P17" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>323</v>
+      </c>
+      <c r="R17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>4885.4926109400003</v>
-      </c>
-      <c r="D18">
-        <v>720.71579917600002</v>
-      </c>
-      <c r="E18">
-        <v>981.320754717</v>
-      </c>
-      <c r="F18">
-        <v>108.24479134000001</v>
-      </c>
-      <c r="G18">
-        <v>7.1518228273600007E-2</v>
-      </c>
-      <c r="H18">
-        <v>3.8696251368700002E-2</v>
-      </c>
-      <c r="I18">
-        <v>237.66037735800001</v>
-      </c>
-      <c r="J18">
-        <v>102.59922825</v>
-      </c>
-      <c r="K18">
-        <v>0.71698113207500003</v>
-      </c>
-      <c r="L18">
-        <v>125</v>
-      </c>
-      <c r="M18">
-        <v>0.99924471299100004</v>
-      </c>
-      <c r="N18">
-        <v>1.0015128593</v>
-      </c>
-      <c r="O18">
-        <v>1.00608828006</v>
-      </c>
-      <c r="P18">
-        <v>0.32560843619099999</v>
-      </c>
-      <c r="Q18">
-        <v>0.24939975072600001</v>
-      </c>
-      <c r="R18">
-        <v>0.23254747223700001</v>
-      </c>
-      <c r="S18">
-        <v>0.19244434084500001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="C18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I18" t="s">
+        <v>332</v>
+      </c>
+      <c r="J18" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" t="s">
+        <v>334</v>
+      </c>
+      <c r="L18" t="s">
+        <v>335</v>
+      </c>
+      <c r="M18" t="s">
+        <v>336</v>
+      </c>
+      <c r="N18" t="s">
+        <v>337</v>
+      </c>
+      <c r="O18" t="s">
+        <v>338</v>
+      </c>
+      <c r="P18" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>340</v>
+      </c>
+      <c r="R18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19">
-        <v>2599.4341958499999</v>
-      </c>
-      <c r="D19">
-        <v>1368.37047781</v>
-      </c>
-      <c r="E19">
-        <v>514.88785046700002</v>
-      </c>
-      <c r="F19">
-        <v>261.885375764</v>
-      </c>
-      <c r="G19">
-        <v>0.12144320694999999</v>
-      </c>
-      <c r="H19">
-        <v>5.4655106799900002E-2</v>
-      </c>
-      <c r="I19">
-        <v>143.28037383200001</v>
-      </c>
-      <c r="J19">
-        <v>118.390593399</v>
-      </c>
-      <c r="K19">
-        <v>0.55140186915900002</v>
-      </c>
-      <c r="L19">
-        <v>127.999226006</v>
-      </c>
-      <c r="M19">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="N19">
-        <v>1.5011618900100001</v>
-      </c>
-      <c r="O19">
-        <v>0.66649457924599997</v>
-      </c>
-      <c r="P19">
-        <v>0.27755283245700002</v>
-      </c>
-      <c r="Q19">
-        <v>0.25512577759400001</v>
-      </c>
-      <c r="R19">
-        <v>0.23367801725000001</v>
-      </c>
-      <c r="S19">
-        <v>0.23364337269900001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H19" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" t="s">
+        <v>350</v>
+      </c>
+      <c r="L19" t="s">
+        <v>351</v>
+      </c>
+      <c r="M19" t="s">
+        <v>352</v>
+      </c>
+      <c r="N19" t="s">
+        <v>353</v>
+      </c>
+      <c r="O19" t="s">
+        <v>354</v>
+      </c>
+      <c r="P19" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>356</v>
+      </c>
+      <c r="R19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20">
-        <v>3335.2483260200001</v>
-      </c>
-      <c r="D20">
-        <v>870.30690189300003</v>
-      </c>
-      <c r="E20">
-        <v>654.75700934600002</v>
-      </c>
-      <c r="F20">
-        <v>165.40970607</v>
-      </c>
-      <c r="G20">
-        <v>8.4885646235900003E-2</v>
-      </c>
-      <c r="H20">
-        <v>5.7014485180599997E-2</v>
-      </c>
-      <c r="I20">
-        <v>269.803738318</v>
-      </c>
-      <c r="J20">
-        <v>126.04096939999999</v>
-      </c>
-      <c r="K20">
-        <v>0.78504672897200001</v>
-      </c>
-      <c r="L20">
-        <v>130.011792453</v>
-      </c>
-      <c r="M20">
-        <v>0.99921445404599996</v>
-      </c>
-      <c r="N20">
-        <v>1.0015735641200001</v>
-      </c>
-      <c r="O20">
-        <v>0.66614255765200003</v>
-      </c>
-      <c r="P20">
-        <v>0.28103731557900002</v>
-      </c>
-      <c r="Q20">
-        <v>0.25175538874800002</v>
-      </c>
-      <c r="R20">
-        <v>0.24804261915799999</v>
-      </c>
-      <c r="S20">
-        <v>0.21916467651499999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I20" t="s">
+        <v>365</v>
+      </c>
+      <c r="J20" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" t="s">
+        <v>366</v>
+      </c>
+      <c r="L20" t="s">
+        <v>367</v>
+      </c>
+      <c r="M20" t="s">
+        <v>368</v>
+      </c>
+      <c r="N20" t="s">
+        <v>369</v>
+      </c>
+      <c r="O20" t="s">
+        <v>370</v>
+      </c>
+      <c r="P20" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>372</v>
+      </c>
+      <c r="R20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21">
-        <v>3154.5195170100001</v>
-      </c>
-      <c r="D21">
-        <v>954.74158178300002</v>
-      </c>
-      <c r="E21">
-        <v>654.28037383200001</v>
-      </c>
-      <c r="F21">
-        <v>222.34648361000001</v>
-      </c>
-      <c r="G21">
-        <v>8.30732654707E-2</v>
-      </c>
-      <c r="H21">
-        <v>2.8363692912299999E-2</v>
-      </c>
-      <c r="I21">
-        <v>193.65420560699999</v>
-      </c>
-      <c r="J21">
-        <v>97.728414716800003</v>
-      </c>
-      <c r="K21">
-        <v>0.58878504672900001</v>
-      </c>
-      <c r="L21">
-        <v>127.999226006</v>
-      </c>
-      <c r="M21">
-        <v>1.0007745933400001</v>
-      </c>
-      <c r="N21">
-        <v>0.99845320958999995</v>
-      </c>
-      <c r="O21">
-        <v>0.66718266253900005</v>
-      </c>
-      <c r="P21">
-        <v>0.48276060498599999</v>
-      </c>
-      <c r="Q21">
-        <v>0.19793575180799999</v>
-      </c>
-      <c r="R21">
-        <v>0.192612426403</v>
-      </c>
-      <c r="S21">
-        <v>0.126691216804</v>
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" t="s">
+        <v>380</v>
+      </c>
+      <c r="I21" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" t="s">
+        <v>382</v>
+      </c>
+      <c r="L21" t="s">
+        <v>383</v>
+      </c>
+      <c r="M21" t="s">
+        <v>384</v>
+      </c>
+      <c r="N21" t="s">
+        <v>385</v>
+      </c>
+      <c r="O21" t="s">
+        <v>386</v>
+      </c>
+      <c r="P21" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>388</v>
+      </c>
+      <c r="R21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H22" t="s">
+        <v>396</v>
+      </c>
+      <c r="I22" t="s">
+        <v>397</v>
+      </c>
+      <c r="J22" t="s">
+        <v>333</v>
+      </c>
+      <c r="K22" t="s">
+        <v>398</v>
+      </c>
+      <c r="L22" t="s">
+        <v>399</v>
+      </c>
+      <c r="M22" t="s">
+        <v>400</v>
+      </c>
+      <c r="N22" t="s">
+        <v>401</v>
+      </c>
+      <c r="O22" t="s">
+        <v>402</v>
+      </c>
+      <c r="P22" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>404</v>
+      </c>
+      <c r="R22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" t="s">
+        <v>411</v>
+      </c>
+      <c r="H23" t="s">
+        <v>412</v>
+      </c>
+      <c r="I23" t="s">
+        <v>413</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>414</v>
+      </c>
+      <c r="L23" t="s">
+        <v>415</v>
+      </c>
+      <c r="M23" t="s">
+        <v>416</v>
+      </c>
+      <c r="N23" t="s">
+        <v>417</v>
+      </c>
+      <c r="O23" t="s">
+        <v>418</v>
+      </c>
+      <c r="P23" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>420</v>
+      </c>
+      <c r="R23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" t="s">
+        <v>425</v>
+      </c>
+      <c r="F24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H24" t="s">
+        <v>428</v>
+      </c>
+      <c r="I24" t="s">
+        <v>429</v>
+      </c>
+      <c r="J24" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" t="s">
+        <v>432</v>
+      </c>
+      <c r="M24" t="s">
+        <v>433</v>
+      </c>
+      <c r="N24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O24" t="s">
+        <v>435</v>
+      </c>
+      <c r="P24" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>437</v>
+      </c>
+      <c r="R24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E25" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" t="s">
+        <v>445</v>
+      </c>
+      <c r="H25" t="s">
+        <v>446</v>
+      </c>
+      <c r="I25" t="s">
+        <v>447</v>
+      </c>
+      <c r="J25" t="s">
+        <v>448</v>
+      </c>
+      <c r="K25" t="s">
+        <v>449</v>
+      </c>
+      <c r="L25" t="s">
+        <v>450</v>
+      </c>
+      <c r="M25" t="s">
+        <v>451</v>
+      </c>
+      <c r="N25" t="s">
+        <v>452</v>
+      </c>
+      <c r="O25" t="s">
+        <v>453</v>
+      </c>
+      <c r="P25" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>455</v>
+      </c>
+      <c r="R25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" t="s">
+        <v>460</v>
+      </c>
+      <c r="F26" t="s">
+        <v>461</v>
+      </c>
+      <c r="G26" t="s">
+        <v>462</v>
+      </c>
+      <c r="H26" t="s">
+        <v>463</v>
+      </c>
+      <c r="I26" t="s">
+        <v>464</v>
+      </c>
+      <c r="J26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
+        <v>465</v>
+      </c>
+      <c r="L26" t="s">
+        <v>466</v>
+      </c>
+      <c r="M26" t="s">
+        <v>467</v>
+      </c>
+      <c r="N26" t="s">
+        <v>468</v>
+      </c>
+      <c r="O26" t="s">
+        <v>469</v>
+      </c>
+      <c r="P26" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>471</v>
+      </c>
+      <c r="R26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" t="s">
+        <v>474</v>
+      </c>
+      <c r="D27" t="s">
+        <v>475</v>
+      </c>
+      <c r="E27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F27" t="s">
+        <v>477</v>
+      </c>
+      <c r="G27" t="s">
+        <v>478</v>
+      </c>
+      <c r="H27" t="s">
+        <v>479</v>
+      </c>
+      <c r="I27" t="s">
+        <v>480</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>481</v>
+      </c>
+      <c r="L27" t="s">
+        <v>482</v>
+      </c>
+      <c r="M27" t="s">
+        <v>483</v>
+      </c>
+      <c r="N27" t="s">
+        <v>484</v>
+      </c>
+      <c r="O27" t="s">
+        <v>485</v>
+      </c>
+      <c r="P27" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>487</v>
+      </c>
+      <c r="R27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" t="s">
+        <v>491</v>
+      </c>
+      <c r="E28" t="s">
+        <v>492</v>
+      </c>
+      <c r="F28" t="s">
+        <v>493</v>
+      </c>
+      <c r="G28" t="s">
+        <v>494</v>
+      </c>
+      <c r="H28" t="s">
+        <v>495</v>
+      </c>
+      <c r="I28" t="s">
+        <v>496</v>
+      </c>
+      <c r="J28" t="s">
+        <v>497</v>
+      </c>
+      <c r="K28" t="s">
+        <v>498</v>
+      </c>
+      <c r="L28" t="s">
+        <v>499</v>
+      </c>
+      <c r="M28" t="s">
+        <v>500</v>
+      </c>
+      <c r="N28" t="s">
+        <v>501</v>
+      </c>
+      <c r="O28" t="s">
+        <v>502</v>
+      </c>
+      <c r="P28" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>504</v>
+      </c>
+      <c r="R28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" t="s">
+        <v>508</v>
+      </c>
+      <c r="E29" t="s">
+        <v>509</v>
+      </c>
+      <c r="F29" t="s">
+        <v>510</v>
+      </c>
+      <c r="G29" t="s">
+        <v>511</v>
+      </c>
+      <c r="H29" t="s">
+        <v>512</v>
+      </c>
+      <c r="I29" t="s">
+        <v>513</v>
+      </c>
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" t="s">
+        <v>514</v>
+      </c>
+      <c r="L29" t="s">
+        <v>515</v>
+      </c>
+      <c r="M29" t="s">
+        <v>516</v>
+      </c>
+      <c r="N29" t="s">
+        <v>517</v>
+      </c>
+      <c r="O29" t="s">
+        <v>518</v>
+      </c>
+      <c r="P29" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>520</v>
+      </c>
+      <c r="R29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" t="s">
+        <v>522</v>
+      </c>
+      <c r="C30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" t="s">
+        <v>525</v>
+      </c>
+      <c r="F30" t="s">
+        <v>526</v>
+      </c>
+      <c r="G30" t="s">
+        <v>527</v>
+      </c>
+      <c r="H30" t="s">
+        <v>528</v>
+      </c>
+      <c r="I30" t="s">
+        <v>529</v>
+      </c>
+      <c r="J30" t="s">
+        <v>448</v>
+      </c>
+      <c r="K30" t="s">
+        <v>530</v>
+      </c>
+      <c r="L30" t="s">
+        <v>531</v>
+      </c>
+      <c r="M30" t="s">
+        <v>532</v>
+      </c>
+      <c r="N30" t="s">
+        <v>533</v>
+      </c>
+      <c r="O30" t="s">
+        <v>534</v>
+      </c>
+      <c r="P30" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>536</v>
+      </c>
+      <c r="R30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" t="s">
+        <v>538</v>
+      </c>
+      <c r="C31" t="s">
+        <v>539</v>
+      </c>
+      <c r="D31" t="s">
+        <v>540</v>
+      </c>
+      <c r="E31" t="s">
+        <v>541</v>
+      </c>
+      <c r="F31" t="s">
+        <v>542</v>
+      </c>
+      <c r="G31" t="s">
+        <v>543</v>
+      </c>
+      <c r="H31" t="s">
+        <v>544</v>
+      </c>
+      <c r="I31" t="s">
+        <v>545</v>
+      </c>
+      <c r="J31" t="s">
+        <v>546</v>
+      </c>
+      <c r="K31" t="s">
+        <v>547</v>
+      </c>
+      <c r="L31" t="s">
+        <v>548</v>
+      </c>
+      <c r="M31" t="s">
+        <v>549</v>
+      </c>
+      <c r="N31" t="s">
+        <v>550</v>
+      </c>
+      <c r="O31" t="s">
+        <v>551</v>
+      </c>
+      <c r="P31" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>553</v>
+      </c>
+      <c r="R31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" t="s">
+        <v>555</v>
+      </c>
+      <c r="C32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D32" t="s">
+        <v>557</v>
+      </c>
+      <c r="E32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F32" t="s">
+        <v>559</v>
+      </c>
+      <c r="G32" t="s">
+        <v>560</v>
+      </c>
+      <c r="H32" t="s">
+        <v>561</v>
+      </c>
+      <c r="I32" t="s">
+        <v>562</v>
+      </c>
+      <c r="J32" t="s">
+        <v>497</v>
+      </c>
+      <c r="K32" t="s">
+        <v>563</v>
+      </c>
+      <c r="L32" t="s">
+        <v>564</v>
+      </c>
+      <c r="M32" t="s">
+        <v>565</v>
+      </c>
+      <c r="N32" t="s">
+        <v>566</v>
+      </c>
+      <c r="O32" t="s">
+        <v>567</v>
+      </c>
+      <c r="P32" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>569</v>
+      </c>
+      <c r="R32" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33" t="s">
+        <v>571</v>
+      </c>
+      <c r="C33" t="s">
+        <v>572</v>
+      </c>
+      <c r="D33" t="s">
+        <v>573</v>
+      </c>
+      <c r="E33" t="s">
+        <v>574</v>
+      </c>
+      <c r="F33" t="s">
+        <v>575</v>
+      </c>
+      <c r="G33" t="s">
+        <v>576</v>
+      </c>
+      <c r="H33" t="s">
+        <v>577</v>
+      </c>
+      <c r="I33" t="s">
+        <v>578</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" t="s">
+        <v>579</v>
+      </c>
+      <c r="L33" t="s">
+        <v>580</v>
+      </c>
+      <c r="M33" t="s">
+        <v>581</v>
+      </c>
+      <c r="N33" t="s">
+        <v>582</v>
+      </c>
+      <c r="O33" t="s">
+        <v>583</v>
+      </c>
+      <c r="P33" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>585</v>
+      </c>
+      <c r="R33" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34" t="s">
+        <v>587</v>
+      </c>
+      <c r="C34" t="s">
+        <v>588</v>
+      </c>
+      <c r="D34" t="s">
+        <v>589</v>
+      </c>
+      <c r="E34" t="s">
+        <v>590</v>
+      </c>
+      <c r="F34" t="s">
+        <v>591</v>
+      </c>
+      <c r="G34" t="s">
+        <v>592</v>
+      </c>
+      <c r="H34" t="s">
+        <v>593</v>
+      </c>
+      <c r="I34" t="s">
+        <v>594</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" t="s">
+        <v>595</v>
+      </c>
+      <c r="L34" t="s">
+        <v>596</v>
+      </c>
+      <c r="M34" t="s">
+        <v>597</v>
+      </c>
+      <c r="N34" t="s">
+        <v>598</v>
+      </c>
+      <c r="O34" t="s">
+        <v>599</v>
+      </c>
+      <c r="P34" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>601</v>
+      </c>
+      <c r="R34" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" t="s">
+        <v>603</v>
+      </c>
+      <c r="C35" t="s">
+        <v>604</v>
+      </c>
+      <c r="D35" t="s">
+        <v>605</v>
+      </c>
+      <c r="E35" t="s">
+        <v>606</v>
+      </c>
+      <c r="F35" t="s">
+        <v>607</v>
+      </c>
+      <c r="G35" t="s">
+        <v>608</v>
+      </c>
+      <c r="H35" t="s">
+        <v>609</v>
+      </c>
+      <c r="I35" t="s">
+        <v>610</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" t="s">
+        <v>611</v>
+      </c>
+      <c r="L35" t="s">
+        <v>612</v>
+      </c>
+      <c r="M35" t="s">
+        <v>613</v>
+      </c>
+      <c r="N35" t="s">
+        <v>614</v>
+      </c>
+      <c r="O35" t="s">
+        <v>615</v>
+      </c>
+      <c r="P35" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>617</v>
+      </c>
+      <c r="R35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C36" t="s">
+        <v>620</v>
+      </c>
+      <c r="D36" t="s">
+        <v>621</v>
+      </c>
+      <c r="E36" t="s">
+        <v>622</v>
+      </c>
+      <c r="F36" t="s">
+        <v>623</v>
+      </c>
+      <c r="G36" t="s">
+        <v>624</v>
+      </c>
+      <c r="H36" t="s">
+        <v>625</v>
+      </c>
+      <c r="I36" t="s">
+        <v>626</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
+        <v>627</v>
+      </c>
+      <c r="L36" t="s">
+        <v>628</v>
+      </c>
+      <c r="M36" t="s">
+        <v>629</v>
+      </c>
+      <c r="N36" t="s">
+        <v>630</v>
+      </c>
+      <c r="O36" t="s">
+        <v>631</v>
+      </c>
+      <c r="P36" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>633</v>
+      </c>
+      <c r="R36" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>439</v>
+      </c>
+      <c r="B37" t="s">
+        <v>635</v>
+      </c>
+      <c r="C37" t="s">
+        <v>636</v>
+      </c>
+      <c r="D37" t="s">
+        <v>637</v>
+      </c>
+      <c r="E37" t="s">
+        <v>638</v>
+      </c>
+      <c r="F37" t="s">
+        <v>639</v>
+      </c>
+      <c r="G37" t="s">
+        <v>640</v>
+      </c>
+      <c r="H37" t="s">
+        <v>641</v>
+      </c>
+      <c r="I37" t="s">
+        <v>642</v>
+      </c>
+      <c r="J37" t="s">
+        <v>643</v>
+      </c>
+      <c r="K37" t="s">
+        <v>644</v>
+      </c>
+      <c r="L37" t="s">
+        <v>645</v>
+      </c>
+      <c r="M37" t="s">
+        <v>646</v>
+      </c>
+      <c r="N37" t="s">
+        <v>647</v>
+      </c>
+      <c r="O37" t="s">
+        <v>648</v>
+      </c>
+      <c r="P37" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>650</v>
+      </c>
+      <c r="R37" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" t="s">
+        <v>653</v>
+      </c>
+      <c r="D38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E38" t="s">
+        <v>655</v>
+      </c>
+      <c r="F38" t="s">
+        <v>656</v>
+      </c>
+      <c r="G38" t="s">
+        <v>657</v>
+      </c>
+      <c r="H38" t="s">
+        <v>658</v>
+      </c>
+      <c r="I38" t="s">
+        <v>659</v>
+      </c>
+      <c r="J38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" t="s">
+        <v>660</v>
+      </c>
+      <c r="L38" t="s">
+        <v>661</v>
+      </c>
+      <c r="M38" t="s">
+        <v>662</v>
+      </c>
+      <c r="N38" t="s">
+        <v>663</v>
+      </c>
+      <c r="O38" t="s">
+        <v>664</v>
+      </c>
+      <c r="P38" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>666</v>
+      </c>
+      <c r="R38" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" t="s">
+        <v>669</v>
+      </c>
+      <c r="D39" t="s">
+        <v>670</v>
+      </c>
+      <c r="E39" t="s">
+        <v>671</v>
+      </c>
+      <c r="F39" t="s">
+        <v>672</v>
+      </c>
+      <c r="G39" t="s">
+        <v>673</v>
+      </c>
+      <c r="H39" t="s">
+        <v>674</v>
+      </c>
+      <c r="I39" t="s">
+        <v>675</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" t="s">
+        <v>676</v>
+      </c>
+      <c r="L39" t="s">
+        <v>677</v>
+      </c>
+      <c r="M39" t="s">
+        <v>678</v>
+      </c>
+      <c r="N39" t="s">
+        <v>679</v>
+      </c>
+      <c r="O39" t="s">
+        <v>680</v>
+      </c>
+      <c r="P39" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>682</v>
+      </c>
+      <c r="R39" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" t="s">
+        <v>684</v>
+      </c>
+      <c r="C40" t="s">
+        <v>685</v>
+      </c>
+      <c r="D40" t="s">
+        <v>686</v>
+      </c>
+      <c r="E40" t="s">
+        <v>687</v>
+      </c>
+      <c r="F40" t="s">
+        <v>688</v>
+      </c>
+      <c r="G40" t="s">
+        <v>689</v>
+      </c>
+      <c r="H40" t="s">
+        <v>690</v>
+      </c>
+      <c r="I40" t="s">
+        <v>691</v>
+      </c>
+      <c r="J40" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" t="s">
+        <v>692</v>
+      </c>
+      <c r="L40" t="s">
+        <v>693</v>
+      </c>
+      <c r="M40" t="s">
+        <v>694</v>
+      </c>
+      <c r="N40" t="s">
+        <v>695</v>
+      </c>
+      <c r="O40" t="s">
+        <v>696</v>
+      </c>
+      <c r="P40" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>698</v>
+      </c>
+      <c r="R40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" t="s">
+        <v>700</v>
+      </c>
+      <c r="C41" t="s">
+        <v>701</v>
+      </c>
+      <c r="D41" t="s">
+        <v>702</v>
+      </c>
+      <c r="E41" t="s">
+        <v>703</v>
+      </c>
+      <c r="F41" t="s">
+        <v>704</v>
+      </c>
+      <c r="G41" t="s">
+        <v>705</v>
+      </c>
+      <c r="H41" t="s">
+        <v>706</v>
+      </c>
+      <c r="I41" t="s">
+        <v>707</v>
+      </c>
+      <c r="J41" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" t="s">
+        <v>708</v>
+      </c>
+      <c r="L41" t="s">
+        <v>709</v>
+      </c>
+      <c r="M41" t="s">
+        <v>710</v>
+      </c>
+      <c r="N41" t="s">
+        <v>711</v>
+      </c>
+      <c r="O41" t="s">
+        <v>712</v>
+      </c>
+      <c r="P41" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>714</v>
+      </c>
+      <c r="R41" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B42" t="s">
+        <v>716</v>
+      </c>
+      <c r="C42" t="s">
+        <v>717</v>
+      </c>
+      <c r="D42" t="s">
+        <v>718</v>
+      </c>
+      <c r="E42" t="s">
+        <v>719</v>
+      </c>
+      <c r="F42" t="s">
+        <v>720</v>
+      </c>
+      <c r="G42" t="s">
+        <v>721</v>
+      </c>
+      <c r="H42" t="s">
+        <v>722</v>
+      </c>
+      <c r="I42" t="s">
+        <v>723</v>
+      </c>
+      <c r="J42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" t="s">
+        <v>724</v>
+      </c>
+      <c r="L42" t="s">
+        <v>725</v>
+      </c>
+      <c r="M42" t="s">
+        <v>726</v>
+      </c>
+      <c r="N42" t="s">
+        <v>727</v>
+      </c>
+      <c r="O42" t="s">
+        <v>728</v>
+      </c>
+      <c r="P42" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>730</v>
+      </c>
+      <c r="R42" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B43" t="s">
+        <v>732</v>
+      </c>
+      <c r="C43" t="s">
+        <v>733</v>
+      </c>
+      <c r="D43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E43" t="s">
+        <v>735</v>
+      </c>
+      <c r="F43" t="s">
+        <v>736</v>
+      </c>
+      <c r="G43" t="s">
+        <v>737</v>
+      </c>
+      <c r="H43" t="s">
+        <v>738</v>
+      </c>
+      <c r="I43" t="s">
+        <v>739</v>
+      </c>
+      <c r="J43" t="s">
+        <v>285</v>
+      </c>
+      <c r="K43" t="s">
+        <v>740</v>
+      </c>
+      <c r="L43" t="s">
+        <v>741</v>
+      </c>
+      <c r="M43" t="s">
+        <v>742</v>
+      </c>
+      <c r="N43" t="s">
+        <v>743</v>
+      </c>
+      <c r="O43" t="s">
+        <v>744</v>
+      </c>
+      <c r="P43" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>746</v>
+      </c>
+      <c r="R43" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" t="s">
+        <v>748</v>
+      </c>
+      <c r="C44" t="s">
+        <v>749</v>
+      </c>
+      <c r="D44" t="s">
+        <v>750</v>
+      </c>
+      <c r="E44" t="s">
+        <v>751</v>
+      </c>
+      <c r="F44" t="s">
+        <v>752</v>
+      </c>
+      <c r="G44" t="s">
+        <v>753</v>
+      </c>
+      <c r="H44" t="s">
+        <v>754</v>
+      </c>
+      <c r="I44" t="s">
+        <v>755</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s">
+        <v>756</v>
+      </c>
+      <c r="L44" t="s">
+        <v>757</v>
+      </c>
+      <c r="M44" t="s">
+        <v>758</v>
+      </c>
+      <c r="N44" t="s">
+        <v>759</v>
+      </c>
+      <c r="O44" t="s">
+        <v>760</v>
+      </c>
+      <c r="P44" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>762</v>
+      </c>
+      <c r="R44" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45" t="s">
+        <v>764</v>
+      </c>
+      <c r="C45" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45" t="s">
+        <v>766</v>
+      </c>
+      <c r="E45" t="s">
+        <v>767</v>
+      </c>
+      <c r="F45" t="s">
+        <v>768</v>
+      </c>
+      <c r="G45" t="s">
+        <v>769</v>
+      </c>
+      <c r="H45" t="s">
+        <v>770</v>
+      </c>
+      <c r="I45" t="s">
+        <v>771</v>
+      </c>
+      <c r="J45" t="s">
+        <v>772</v>
+      </c>
+      <c r="K45" t="s">
+        <v>773</v>
+      </c>
+      <c r="L45" t="s">
+        <v>774</v>
+      </c>
+      <c r="M45" t="s">
+        <v>775</v>
+      </c>
+      <c r="N45" t="s">
+        <v>776</v>
+      </c>
+      <c r="O45" t="s">
+        <v>777</v>
+      </c>
+      <c r="P45" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>779</v>
+      </c>
+      <c r="R45" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>439</v>
+      </c>
+      <c r="B46" t="s">
+        <v>781</v>
+      </c>
+      <c r="C46" t="s">
+        <v>782</v>
+      </c>
+      <c r="D46" t="s">
+        <v>783</v>
+      </c>
+      <c r="E46" t="s">
+        <v>784</v>
+      </c>
+      <c r="F46" t="s">
+        <v>785</v>
+      </c>
+      <c r="G46" t="s">
+        <v>786</v>
+      </c>
+      <c r="H46" t="s">
+        <v>787</v>
+      </c>
+      <c r="I46" t="s">
+        <v>788</v>
+      </c>
+      <c r="J46" t="s">
+        <v>268</v>
+      </c>
+      <c r="K46" t="s">
+        <v>789</v>
+      </c>
+      <c r="L46" t="s">
+        <v>790</v>
+      </c>
+      <c r="M46" t="s">
+        <v>791</v>
+      </c>
+      <c r="N46" t="s">
+        <v>792</v>
+      </c>
+      <c r="O46" t="s">
+        <v>793</v>
+      </c>
+      <c r="P46" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>795</v>
+      </c>
+      <c r="R46" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>439</v>
+      </c>
+      <c r="B47" t="s">
+        <v>797</v>
+      </c>
+      <c r="C47" t="s">
+        <v>798</v>
+      </c>
+      <c r="D47" t="s">
+        <v>799</v>
+      </c>
+      <c r="E47" t="s">
+        <v>800</v>
+      </c>
+      <c r="F47" t="s">
+        <v>801</v>
+      </c>
+      <c r="G47" t="s">
+        <v>802</v>
+      </c>
+      <c r="H47" t="s">
+        <v>803</v>
+      </c>
+      <c r="I47" t="s">
+        <v>804</v>
+      </c>
+      <c r="J47" t="s">
+        <v>448</v>
+      </c>
+      <c r="K47" t="s">
+        <v>805</v>
+      </c>
+      <c r="L47" t="s">
+        <v>806</v>
+      </c>
+      <c r="M47" t="s">
+        <v>807</v>
+      </c>
+      <c r="N47" t="s">
+        <v>808</v>
+      </c>
+      <c r="O47" t="s">
+        <v>809</v>
+      </c>
+      <c r="P47" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>811</v>
+      </c>
+      <c r="R47" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
